--- a/Gantt chart - Assignment 1 2.xlsx
+++ b/Gantt chart - Assignment 1 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4708EF-A1A0-4BA1-8026-08ACD2FCA9F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33BAF43-58A0-4AC0-B0D4-2893877C4E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>Smartsheet Tip ➜</t>
   </si>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Sunderland Project</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>OVO Marketing solution Limited</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -150,10 +146,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>GANTT CHART TEMPLATE</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>Calvin</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -262,6 +254,29 @@
   </si>
   <si>
     <t>Review with Marta</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GANTT CHART for A1 &amp; A2 </t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunderland Project</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DATASET </t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank Marketing Data Set (https://archive.ics.uci.edu/ml/datasets/Bank+Marketing)</t>
+  </si>
+  <si>
+    <t>Research - Banking marketing Campiagn</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idendifty the business problem</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -999,28 +1014,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,31 +1054,15 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,6 +1077,18 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,10 +1408,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CF36"/>
+  <dimension ref="A1:CF38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1494,57 +1516,57 @@
     </row>
     <row r="2" spans="1:84" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="B2" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="90" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
       <c r="AU2" s="12"/>
       <c r="AV2" s="12"/>
       <c r="AW2" s="12"/>
@@ -1675,53 +1697,53 @@
       <c r="B4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="17"/>
       <c r="I4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
       <c r="AR4" s="18"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
@@ -1769,52 +1791,52 @@
       <c r="B5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="73" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="19"/>
       <c r="I5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="89">
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77">
         <v>43962</v>
       </c>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="76"/>
+      <c r="AP5" s="76"/>
       <c r="AQ5" s="20"/>
       <c r="AR5" s="18"/>
       <c r="AS5" s="1"/>
@@ -1858,14 +1880,18 @@
       <c r="CE5" s="1"/>
       <c r="CF5" s="1"/>
     </row>
-    <row r="6" spans="1:84" ht="21" customHeight="1">
+    <row r="6" spans="1:84" ht="32.4" customHeight="1">
       <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="B6" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="24"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -2032,237 +2058,237 @@
     </row>
     <row r="8" spans="1:84" ht="17.25" customHeight="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="96"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="96"/>
-      <c r="AB8" s="96"/>
-      <c r="AC8" s="96"/>
-      <c r="AD8" s="96"/>
-      <c r="AE8" s="96"/>
-      <c r="AF8" s="96"/>
-      <c r="AG8" s="96"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="96"/>
-      <c r="AJ8" s="96"/>
-      <c r="AK8" s="96"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="83" t="s">
+      <c r="I8" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="95"/>
+      <c r="AI8" s="95"/>
+      <c r="AJ8" s="95"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="85"/>
+      <c r="BA8" s="85"/>
+      <c r="BB8" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="72"/>
-      <c r="BJ8" s="72"/>
-      <c r="BK8" s="72"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="72"/>
-      <c r="BN8" s="72"/>
-      <c r="BO8" s="72"/>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="80" t="s">
+      <c r="BC8" s="85"/>
+      <c r="BD8" s="85"/>
+      <c r="BE8" s="85"/>
+      <c r="BF8" s="85"/>
+      <c r="BG8" s="85"/>
+      <c r="BH8" s="85"/>
+      <c r="BI8" s="85"/>
+      <c r="BJ8" s="85"/>
+      <c r="BK8" s="85"/>
+      <c r="BL8" s="85"/>
+      <c r="BM8" s="85"/>
+      <c r="BN8" s="85"/>
+      <c r="BO8" s="85"/>
+      <c r="BP8" s="85"/>
+      <c r="BQ8" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="72"/>
-      <c r="BT8" s="72"/>
-      <c r="BU8" s="72"/>
-      <c r="BV8" s="72"/>
-      <c r="BW8" s="72"/>
-      <c r="BX8" s="72"/>
-      <c r="BY8" s="72"/>
-      <c r="BZ8" s="72"/>
-      <c r="CA8" s="72"/>
-      <c r="CB8" s="72"/>
-      <c r="CC8" s="72"/>
-      <c r="CD8" s="72"/>
-      <c r="CE8" s="81"/>
+      <c r="BR8" s="85"/>
+      <c r="BS8" s="85"/>
+      <c r="BT8" s="85"/>
+      <c r="BU8" s="85"/>
+      <c r="BV8" s="85"/>
+      <c r="BW8" s="85"/>
+      <c r="BX8" s="85"/>
+      <c r="BY8" s="85"/>
+      <c r="BZ8" s="85"/>
+      <c r="CA8" s="85"/>
+      <c r="CB8" s="85"/>
+      <c r="CC8" s="85"/>
+      <c r="CD8" s="85"/>
+      <c r="CE8" s="86"/>
       <c r="CF8" s="22"/>
     </row>
     <row r="9" spans="1:84" ht="17.25" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="76" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="76" t="s">
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="76" t="s">
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="76" t="s">
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="77"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="85" t="s">
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="85" t="s">
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="85" t="s">
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AX9" s="77"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="77"/>
-      <c r="BA9" s="78"/>
-      <c r="BB9" s="82" t="s">
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="78"/>
-      <c r="BG9" s="82" t="s">
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="82"/>
+      <c r="BE9" s="82"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="BH9" s="77"/>
-      <c r="BI9" s="77"/>
-      <c r="BJ9" s="77"/>
-      <c r="BK9" s="78"/>
-      <c r="BL9" s="82" t="s">
+      <c r="BH9" s="82"/>
+      <c r="BI9" s="82"/>
+      <c r="BJ9" s="82"/>
+      <c r="BK9" s="83"/>
+      <c r="BL9" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="BM9" s="77"/>
-      <c r="BN9" s="77"/>
-      <c r="BO9" s="77"/>
-      <c r="BP9" s="78"/>
-      <c r="BQ9" s="79" t="s">
+      <c r="BM9" s="82"/>
+      <c r="BN9" s="82"/>
+      <c r="BO9" s="82"/>
+      <c r="BP9" s="83"/>
+      <c r="BQ9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="BR9" s="77"/>
-      <c r="BS9" s="77"/>
-      <c r="BT9" s="77"/>
-      <c r="BU9" s="78"/>
-      <c r="BV9" s="79" t="s">
+      <c r="BR9" s="82"/>
+      <c r="BS9" s="82"/>
+      <c r="BT9" s="82"/>
+      <c r="BU9" s="83"/>
+      <c r="BV9" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="BW9" s="77"/>
-      <c r="BX9" s="77"/>
-      <c r="BY9" s="77"/>
-      <c r="BZ9" s="78"/>
-      <c r="CA9" s="79" t="s">
+      <c r="BW9" s="82"/>
+      <c r="BX9" s="82"/>
+      <c r="BY9" s="82"/>
+      <c r="BZ9" s="83"/>
+      <c r="CA9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="CB9" s="77"/>
-      <c r="CC9" s="77"/>
-      <c r="CD9" s="77"/>
-      <c r="CE9" s="78"/>
+      <c r="CB9" s="82"/>
+      <c r="CC9" s="82"/>
+      <c r="CD9" s="82"/>
+      <c r="CE9" s="83"/>
       <c r="CF9" s="26"/>
     </row>
     <row r="10" spans="1:84" ht="17.25" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="28" t="s">
         <v>24</v>
       </c>
@@ -2496,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -2586,10 +2612,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="42">
         <v>43955</v>
@@ -2598,7 +2624,7 @@
         <v>43963</v>
       </c>
       <c r="G12" s="43">
-        <f t="shared" ref="G12:G18" si="0">DAYS360(E12,F12)</f>
+        <f t="shared" ref="G12:G20" si="0">DAYS360(E12,F12)</f>
         <v>8</v>
       </c>
       <c r="H12" s="44">
@@ -2687,10 +2713,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="42">
         <v>43963</v>
@@ -2788,10 +2814,10 @@
         <v>1.2</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="42">
         <v>43965</v>
@@ -2804,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="44">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="57"/>
@@ -2889,10 +2915,10 @@
         <v>1.3</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="42">
         <v>43964</v>
@@ -2905,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="57"/>
@@ -2984,59 +3010,59 @@
       <c r="CE15" s="66"/>
       <c r="CF15" s="39"/>
     </row>
-    <row r="16" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:84" s="71" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A16" s="39"/>
       <c r="B16" s="40">
         <v>1.4</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="42">
-        <v>43976</v>
+        <v>43965</v>
       </c>
       <c r="F16" s="42">
-        <v>43994</v>
+        <v>43977</v>
       </c>
       <c r="G16" s="43">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H16" s="44">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="H16" s="67">
+        <v>0.6</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
       <c r="M16" s="59"/>
       <c r="N16" s="61"/>
       <c r="O16" s="61"/>
       <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="59"/>
       <c r="AL16" s="59"/>
       <c r="AM16" s="59"/>
       <c r="AN16" s="59"/>
@@ -3085,27 +3111,29 @@
       <c r="CE16" s="66"/>
       <c r="CF16" s="39"/>
     </row>
-    <row r="17" spans="1:84" s="70" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:84" s="71" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
+      <c r="B17" s="40">
+        <v>2.4</v>
+      </c>
       <c r="C17" s="41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="42">
-        <v>43980</v>
+        <v>43965</v>
       </c>
       <c r="F17" s="42">
-        <v>43987</v>
+        <v>43969</v>
       </c>
       <c r="G17" s="43">
         <f t="shared" ref="G17" si="1">DAYS360(E17,F17)</f>
-        <v>6</v>
-      </c>
-      <c r="H17" s="44">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H17" s="67">
+        <v>0.3</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="57"/>
@@ -3115,9 +3143,9 @@
       <c r="N17" s="61"/>
       <c r="O17" s="61"/>
       <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="59"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
       <c r="T17" s="59"/>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
@@ -3126,12 +3154,12 @@
       <c r="Y17" s="59"/>
       <c r="Z17" s="59"/>
       <c r="AA17" s="59"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
       <c r="AH17" s="59"/>
       <c r="AI17" s="59"/>
       <c r="AJ17" s="59"/>
@@ -3190,28 +3218,28 @@
         <v>1.5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="42">
-        <v>43994</v>
+        <v>43976</v>
       </c>
       <c r="F18" s="42">
         <v>43994</v>
       </c>
       <c r="G18" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H18" s="44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I18" s="56"/>
       <c r="J18" s="57"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
       <c r="M18" s="59"/>
       <c r="N18" s="61"/>
       <c r="O18" s="61"/>
@@ -3223,19 +3251,19 @@
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
       <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
       <c r="AK18" s="62"/>
       <c r="AL18" s="59"/>
       <c r="AM18" s="59"/>
@@ -3285,399 +3313,411 @@
       <c r="CE18" s="66"/>
       <c r="CF18" s="39"/>
     </row>
-    <row r="19" spans="1:84" ht="21" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="32">
-        <v>2</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="38"/>
-      <c r="AX19" s="38"/>
-      <c r="AY19" s="38"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="38"/>
-      <c r="BF19" s="38"/>
-      <c r="BG19" s="38"/>
-      <c r="BH19" s="38"/>
-      <c r="BI19" s="38"/>
-      <c r="BJ19" s="38"/>
-      <c r="BK19" s="38"/>
-      <c r="BL19" s="38"/>
-      <c r="BM19" s="38"/>
-      <c r="BN19" s="38"/>
-      <c r="BO19" s="38"/>
-      <c r="BP19" s="38"/>
-      <c r="BQ19" s="38"/>
-      <c r="BR19" s="38"/>
-      <c r="BS19" s="38"/>
-      <c r="BT19" s="38"/>
-      <c r="BU19" s="38"/>
-      <c r="BV19" s="38"/>
-      <c r="BW19" s="38"/>
-      <c r="BX19" s="38"/>
-      <c r="BY19" s="38"/>
-      <c r="BZ19" s="38"/>
-      <c r="CA19" s="38"/>
-      <c r="CB19" s="38"/>
-      <c r="CC19" s="38"/>
-      <c r="CD19" s="38"/>
-      <c r="CE19" s="38"/>
-      <c r="CF19" s="22"/>
+    <row r="19" spans="1:84" s="70" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="42">
+        <v>43980</v>
+      </c>
+      <c r="F19" s="42">
+        <v>43987</v>
+      </c>
+      <c r="G19" s="43">
+        <f t="shared" ref="G19" si="2">DAYS360(E19,F19)</f>
+        <v>6</v>
+      </c>
+      <c r="H19" s="44">
+        <v>0</v>
+      </c>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="59"/>
+      <c r="AO19" s="59"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
+      <c r="AU19" s="63"/>
+      <c r="AV19" s="63"/>
+      <c r="AW19" s="59"/>
+      <c r="AX19" s="59"/>
+      <c r="AY19" s="59"/>
+      <c r="AZ19" s="59"/>
+      <c r="BA19" s="59"/>
+      <c r="BB19" s="59"/>
+      <c r="BC19" s="59"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="59"/>
+      <c r="BF19" s="59"/>
+      <c r="BG19" s="64"/>
+      <c r="BH19" s="64"/>
+      <c r="BI19" s="64"/>
+      <c r="BJ19" s="64"/>
+      <c r="BK19" s="64"/>
+      <c r="BL19" s="59"/>
+      <c r="BM19" s="59"/>
+      <c r="BN19" s="59"/>
+      <c r="BO19" s="59"/>
+      <c r="BP19" s="59"/>
+      <c r="BQ19" s="59"/>
+      <c r="BR19" s="59"/>
+      <c r="BS19" s="59"/>
+      <c r="BT19" s="59"/>
+      <c r="BU19" s="59"/>
+      <c r="BV19" s="65"/>
+      <c r="BW19" s="65"/>
+      <c r="BX19" s="65"/>
+      <c r="BY19" s="65"/>
+      <c r="BZ19" s="65"/>
+      <c r="CA19" s="59"/>
+      <c r="CB19" s="59"/>
+      <c r="CC19" s="59"/>
+      <c r="CD19" s="59"/>
+      <c r="CE19" s="66"/>
+      <c r="CF19" s="39"/>
     </row>
     <row r="20" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A20" s="39"/>
       <c r="B20" s="40">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="42">
-        <v>43995</v>
-      </c>
-      <c r="F20" s="42"/>
+        <v>43994</v>
+      </c>
+      <c r="F20" s="42">
+        <v>43994</v>
+      </c>
       <c r="G20" s="43">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H20" s="44">
         <v>0</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="52"/>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="52"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="52"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="51"/>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-      <c r="BG20" s="53"/>
-      <c r="BH20" s="53"/>
-      <c r="BI20" s="53"/>
-      <c r="BJ20" s="53"/>
-      <c r="BK20" s="53"/>
-      <c r="BL20" s="51"/>
-      <c r="BM20" s="51"/>
-      <c r="BN20" s="51"/>
-      <c r="BO20" s="51"/>
-      <c r="BP20" s="51"/>
-      <c r="BQ20" s="51"/>
-      <c r="BR20" s="51"/>
-      <c r="BS20" s="51"/>
-      <c r="BT20" s="51"/>
-      <c r="BU20" s="51"/>
-      <c r="BV20" s="54"/>
-      <c r="BW20" s="54"/>
-      <c r="BX20" s="54"/>
-      <c r="BY20" s="54"/>
-      <c r="BZ20" s="54"/>
-      <c r="CA20" s="51"/>
-      <c r="CB20" s="51"/>
-      <c r="CC20" s="51"/>
-      <c r="CD20" s="51"/>
-      <c r="CE20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="59"/>
+      <c r="AX20" s="59"/>
+      <c r="AY20" s="59"/>
+      <c r="AZ20" s="59"/>
+      <c r="BA20" s="59"/>
+      <c r="BB20" s="59"/>
+      <c r="BC20" s="59"/>
+      <c r="BD20" s="59"/>
+      <c r="BE20" s="59"/>
+      <c r="BF20" s="59"/>
+      <c r="BG20" s="64"/>
+      <c r="BH20" s="64"/>
+      <c r="BI20" s="64"/>
+      <c r="BJ20" s="64"/>
+      <c r="BK20" s="64"/>
+      <c r="BL20" s="59"/>
+      <c r="BM20" s="59"/>
+      <c r="BN20" s="59"/>
+      <c r="BO20" s="59"/>
+      <c r="BP20" s="59"/>
+      <c r="BQ20" s="59"/>
+      <c r="BR20" s="59"/>
+      <c r="BS20" s="59"/>
+      <c r="BT20" s="59"/>
+      <c r="BU20" s="59"/>
+      <c r="BV20" s="65"/>
+      <c r="BW20" s="65"/>
+      <c r="BX20" s="65"/>
+      <c r="BY20" s="65"/>
+      <c r="BZ20" s="65"/>
+      <c r="CA20" s="59"/>
+      <c r="CB20" s="59"/>
+      <c r="CC20" s="59"/>
+      <c r="CD20" s="59"/>
+      <c r="CE20" s="66"/>
       <c r="CF20" s="39"/>
     </row>
-    <row r="21" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43">
-        <v>3</v>
-      </c>
-      <c r="H21" s="44">
-        <v>0</v>
-      </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="59"/>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="59"/>
-      <c r="BD21" s="59"/>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="64"/>
-      <c r="BH21" s="64"/>
-      <c r="BI21" s="64"/>
-      <c r="BJ21" s="64"/>
-      <c r="BK21" s="64"/>
-      <c r="BL21" s="59"/>
-      <c r="BM21" s="59"/>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="59"/>
-      <c r="BP21" s="59"/>
-      <c r="BQ21" s="59"/>
-      <c r="BR21" s="59"/>
-      <c r="BS21" s="59"/>
-      <c r="BT21" s="59"/>
-      <c r="BU21" s="59"/>
-      <c r="BV21" s="65"/>
-      <c r="BW21" s="65"/>
-      <c r="BX21" s="65"/>
-      <c r="BY21" s="65"/>
-      <c r="BZ21" s="65"/>
-      <c r="CA21" s="59"/>
-      <c r="CB21" s="59"/>
-      <c r="CC21" s="59"/>
-      <c r="CD21" s="59"/>
-      <c r="CE21" s="66"/>
-      <c r="CF21" s="39"/>
+    <row r="21" spans="1:84" ht="21" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="32">
+        <v>2</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="38"/>
+      <c r="BH21" s="38"/>
+      <c r="BI21" s="38"/>
+      <c r="BJ21" s="38"/>
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
+      <c r="BM21" s="38"/>
+      <c r="BN21" s="38"/>
+      <c r="BO21" s="38"/>
+      <c r="BP21" s="38"/>
+      <c r="BQ21" s="38"/>
+      <c r="BR21" s="38"/>
+      <c r="BS21" s="38"/>
+      <c r="BT21" s="38"/>
+      <c r="BU21" s="38"/>
+      <c r="BV21" s="38"/>
+      <c r="BW21" s="38"/>
+      <c r="BX21" s="38"/>
+      <c r="BY21" s="38"/>
+      <c r="BZ21" s="38"/>
+      <c r="CA21" s="38"/>
+      <c r="CB21" s="38"/>
+      <c r="CC21" s="38"/>
+      <c r="CD21" s="38"/>
+      <c r="CE21" s="38"/>
+      <c r="CF21" s="22"/>
     </row>
     <row r="22" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A22" s="39"/>
       <c r="B22" s="40">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="42"/>
+        <v>37</v>
+      </c>
+      <c r="E22" s="42">
+        <v>43995</v>
+      </c>
       <c r="F22" s="42"/>
       <c r="G22" s="43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="44">
         <v>0</v>
       </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="63"/>
-      <c r="AS22" s="63"/>
-      <c r="AT22" s="63"/>
-      <c r="AU22" s="63"/>
-      <c r="AV22" s="63"/>
-      <c r="AW22" s="59"/>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="59"/>
-      <c r="AZ22" s="59"/>
-      <c r="BA22" s="59"/>
-      <c r="BB22" s="59"/>
-      <c r="BC22" s="59"/>
-      <c r="BD22" s="59"/>
-      <c r="BE22" s="59"/>
-      <c r="BF22" s="59"/>
-      <c r="BG22" s="64"/>
-      <c r="BH22" s="64"/>
-      <c r="BI22" s="64"/>
-      <c r="BJ22" s="64"/>
-      <c r="BK22" s="64"/>
-      <c r="BL22" s="59"/>
-      <c r="BM22" s="59"/>
-      <c r="BN22" s="59"/>
-      <c r="BO22" s="59"/>
-      <c r="BP22" s="59"/>
-      <c r="BQ22" s="59"/>
-      <c r="BR22" s="59"/>
-      <c r="BS22" s="59"/>
-      <c r="BT22" s="59"/>
-      <c r="BU22" s="59"/>
-      <c r="BV22" s="65"/>
-      <c r="BW22" s="65"/>
-      <c r="BX22" s="65"/>
-      <c r="BY22" s="65"/>
-      <c r="BZ22" s="65"/>
-      <c r="CA22" s="59"/>
-      <c r="CB22" s="59"/>
-      <c r="CC22" s="59"/>
-      <c r="CD22" s="59"/>
-      <c r="CE22" s="66"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="68"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="52"/>
+      <c r="AS22" s="52"/>
+      <c r="AT22" s="52"/>
+      <c r="AU22" s="52"/>
+      <c r="AV22" s="52"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="53"/>
+      <c r="BH22" s="53"/>
+      <c r="BI22" s="53"/>
+      <c r="BJ22" s="53"/>
+      <c r="BK22" s="53"/>
+      <c r="BL22" s="51"/>
+      <c r="BM22" s="51"/>
+      <c r="BN22" s="51"/>
+      <c r="BO22" s="51"/>
+      <c r="BP22" s="51"/>
+      <c r="BQ22" s="51"/>
+      <c r="BR22" s="51"/>
+      <c r="BS22" s="51"/>
+      <c r="BT22" s="51"/>
+      <c r="BU22" s="51"/>
+      <c r="BV22" s="54"/>
+      <c r="BW22" s="54"/>
+      <c r="BX22" s="54"/>
+      <c r="BY22" s="54"/>
+      <c r="BZ22" s="54"/>
+      <c r="CA22" s="51"/>
+      <c r="CB22" s="51"/>
+      <c r="CC22" s="51"/>
+      <c r="CD22" s="51"/>
+      <c r="CE22" s="55"/>
       <c r="CF22" s="39"/>
     </row>
     <row r="23" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A23" s="39"/>
       <c r="B23" s="40">
-        <v>2.4</v>
-      </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="43">
-        <v>0</v>
-      </c>
-      <c r="H23" s="67">
+        <v>3</v>
+      </c>
+      <c r="H23" s="44">
         <v>0</v>
       </c>
       <c r="I23" s="56"/>
@@ -3685,7 +3725,7 @@
       <c r="K23" s="58"/>
       <c r="L23" s="58"/>
       <c r="M23" s="59"/>
-      <c r="N23" s="61"/>
+      <c r="N23" s="60"/>
       <c r="O23" s="61"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
@@ -3714,12 +3754,12 @@
       <c r="AN23" s="59"/>
       <c r="AO23" s="59"/>
       <c r="AP23" s="59"/>
-      <c r="AQ23" s="59"/>
-      <c r="AR23" s="63"/>
-      <c r="AS23" s="63"/>
-      <c r="AT23" s="63"/>
-      <c r="AU23" s="63"/>
-      <c r="AV23" s="63"/>
+      <c r="AQ23" s="68"/>
+      <c r="AR23" s="68"/>
+      <c r="AS23" s="68"/>
+      <c r="AT23" s="68"/>
+      <c r="AU23" s="68"/>
+      <c r="AV23" s="68"/>
       <c r="AW23" s="59"/>
       <c r="AX23" s="59"/>
       <c r="AY23" s="59"/>
@@ -3757,298 +3797,294 @@
       <c r="CE23" s="66"/>
       <c r="CF23" s="39"/>
     </row>
-    <row r="24" spans="1:84" ht="21" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="32">
-        <v>3</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="38"/>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="38"/>
-      <c r="AT24" s="38"/>
-      <c r="AU24" s="38"/>
-      <c r="AV24" s="38"/>
-      <c r="AW24" s="38"/>
-      <c r="AX24" s="38"/>
-      <c r="AY24" s="38"/>
-      <c r="AZ24" s="38"/>
-      <c r="BA24" s="38"/>
-      <c r="BB24" s="38"/>
-      <c r="BC24" s="38"/>
-      <c r="BD24" s="38"/>
-      <c r="BE24" s="38"/>
-      <c r="BF24" s="38"/>
-      <c r="BG24" s="38"/>
-      <c r="BH24" s="38"/>
-      <c r="BI24" s="38"/>
-      <c r="BJ24" s="38"/>
-      <c r="BK24" s="38"/>
-      <c r="BL24" s="38"/>
-      <c r="BM24" s="38"/>
-      <c r="BN24" s="38"/>
-      <c r="BO24" s="38"/>
-      <c r="BP24" s="38"/>
-      <c r="BQ24" s="38"/>
-      <c r="BR24" s="38"/>
-      <c r="BS24" s="38"/>
-      <c r="BT24" s="38"/>
-      <c r="BU24" s="38"/>
-      <c r="BV24" s="38"/>
-      <c r="BW24" s="38"/>
-      <c r="BX24" s="38"/>
-      <c r="BY24" s="38"/>
-      <c r="BZ24" s="38"/>
-      <c r="CA24" s="38"/>
-      <c r="CB24" s="38"/>
-      <c r="CC24" s="38"/>
-      <c r="CD24" s="38"/>
-      <c r="CE24" s="38"/>
-      <c r="CF24" s="22"/>
+    <row r="24" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44">
+        <v>0</v>
+      </c>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="63"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="63"/>
+      <c r="AU24" s="63"/>
+      <c r="AV24" s="63"/>
+      <c r="AW24" s="59"/>
+      <c r="AX24" s="59"/>
+      <c r="AY24" s="59"/>
+      <c r="AZ24" s="59"/>
+      <c r="BA24" s="59"/>
+      <c r="BB24" s="59"/>
+      <c r="BC24" s="59"/>
+      <c r="BD24" s="59"/>
+      <c r="BE24" s="59"/>
+      <c r="BF24" s="59"/>
+      <c r="BG24" s="64"/>
+      <c r="BH24" s="64"/>
+      <c r="BI24" s="64"/>
+      <c r="BJ24" s="64"/>
+      <c r="BK24" s="64"/>
+      <c r="BL24" s="59"/>
+      <c r="BM24" s="59"/>
+      <c r="BN24" s="59"/>
+      <c r="BO24" s="59"/>
+      <c r="BP24" s="59"/>
+      <c r="BQ24" s="59"/>
+      <c r="BR24" s="59"/>
+      <c r="BS24" s="59"/>
+      <c r="BT24" s="59"/>
+      <c r="BU24" s="59"/>
+      <c r="BV24" s="65"/>
+      <c r="BW24" s="65"/>
+      <c r="BX24" s="65"/>
+      <c r="BY24" s="65"/>
+      <c r="BZ24" s="65"/>
+      <c r="CA24" s="59"/>
+      <c r="CB24" s="59"/>
+      <c r="CC24" s="59"/>
+      <c r="CD24" s="59"/>
+      <c r="CE24" s="66"/>
+      <c r="CF24" s="39"/>
     </row>
     <row r="25" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="39"/>
       <c r="B25" s="40">
-        <v>3.1</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>39</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="43">
         <v>0</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="67">
         <v>0</v>
       </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
       <c r="P25" s="61"/>
       <c r="Q25" s="61"/>
       <c r="R25" s="61"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="51"/>
-      <c r="AN25" s="51"/>
-      <c r="AO25" s="51"/>
-      <c r="AP25" s="51"/>
-      <c r="AQ25" s="51"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
-      <c r="BB25" s="51"/>
-      <c r="BC25" s="51"/>
-      <c r="BD25" s="51"/>
-      <c r="BE25" s="51"/>
-      <c r="BF25" s="51"/>
-      <c r="BG25" s="53"/>
-      <c r="BH25" s="53"/>
-      <c r="BI25" s="53"/>
-      <c r="BJ25" s="53"/>
-      <c r="BK25" s="53"/>
-      <c r="BL25" s="51"/>
-      <c r="BM25" s="51"/>
-      <c r="BN25" s="51"/>
-      <c r="BO25" s="51"/>
-      <c r="BP25" s="51"/>
-      <c r="BQ25" s="51"/>
-      <c r="BR25" s="51"/>
-      <c r="BS25" s="51"/>
-      <c r="BT25" s="51"/>
-      <c r="BU25" s="51"/>
-      <c r="BV25" s="54"/>
-      <c r="BW25" s="54"/>
-      <c r="BX25" s="54"/>
-      <c r="BY25" s="54"/>
-      <c r="BZ25" s="54"/>
-      <c r="CA25" s="51"/>
-      <c r="CB25" s="51"/>
-      <c r="CC25" s="51"/>
-      <c r="CD25" s="51"/>
-      <c r="CE25" s="55"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="59"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="63"/>
+      <c r="AV25" s="63"/>
+      <c r="AW25" s="59"/>
+      <c r="AX25" s="59"/>
+      <c r="AY25" s="59"/>
+      <c r="AZ25" s="59"/>
+      <c r="BA25" s="59"/>
+      <c r="BB25" s="59"/>
+      <c r="BC25" s="59"/>
+      <c r="BD25" s="59"/>
+      <c r="BE25" s="59"/>
+      <c r="BF25" s="59"/>
+      <c r="BG25" s="64"/>
+      <c r="BH25" s="64"/>
+      <c r="BI25" s="64"/>
+      <c r="BJ25" s="64"/>
+      <c r="BK25" s="64"/>
+      <c r="BL25" s="59"/>
+      <c r="BM25" s="59"/>
+      <c r="BN25" s="59"/>
+      <c r="BO25" s="59"/>
+      <c r="BP25" s="59"/>
+      <c r="BQ25" s="59"/>
+      <c r="BR25" s="59"/>
+      <c r="BS25" s="59"/>
+      <c r="BT25" s="59"/>
+      <c r="BU25" s="59"/>
+      <c r="BV25" s="65"/>
+      <c r="BW25" s="65"/>
+      <c r="BX25" s="65"/>
+      <c r="BY25" s="65"/>
+      <c r="BZ25" s="65"/>
+      <c r="CA25" s="59"/>
+      <c r="CB25" s="59"/>
+      <c r="CC25" s="59"/>
+      <c r="CD25" s="59"/>
+      <c r="CE25" s="66"/>
       <c r="CF25" s="39"/>
     </row>
-    <row r="26" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40">
-        <v>3.2</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43">
-        <v>0</v>
-      </c>
-      <c r="H26" s="44">
-        <v>0</v>
-      </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="63"/>
-      <c r="AS26" s="63"/>
-      <c r="AT26" s="63"/>
-      <c r="AU26" s="63"/>
-      <c r="AV26" s="63"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
-      <c r="BC26" s="59"/>
-      <c r="BD26" s="59"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="64"/>
-      <c r="BH26" s="64"/>
-      <c r="BI26" s="64"/>
-      <c r="BJ26" s="64"/>
-      <c r="BK26" s="64"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="59"/>
-      <c r="BO26" s="59"/>
-      <c r="BP26" s="59"/>
-      <c r="BQ26" s="59"/>
-      <c r="BR26" s="59"/>
-      <c r="BS26" s="59"/>
-      <c r="BT26" s="59"/>
-      <c r="BU26" s="59"/>
-      <c r="BV26" s="65"/>
-      <c r="BW26" s="65"/>
-      <c r="BX26" s="65"/>
-      <c r="BY26" s="65"/>
-      <c r="BZ26" s="65"/>
-      <c r="CA26" s="59"/>
-      <c r="CB26" s="59"/>
-      <c r="CC26" s="59"/>
-      <c r="CD26" s="59"/>
-      <c r="CE26" s="66"/>
-      <c r="CF26" s="39"/>
+    <row r="26" spans="1:84" ht="21" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="32">
+        <v>3</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="38"/>
+      <c r="AN26" s="38"/>
+      <c r="AO26" s="38"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="38"/>
+      <c r="AV26" s="38"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="38"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="38"/>
+      <c r="BF26" s="38"/>
+      <c r="BG26" s="38"/>
+      <c r="BH26" s="38"/>
+      <c r="BI26" s="38"/>
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="38"/>
+      <c r="BL26" s="38"/>
+      <c r="BM26" s="38"/>
+      <c r="BN26" s="38"/>
+      <c r="BO26" s="38"/>
+      <c r="BP26" s="38"/>
+      <c r="BQ26" s="38"/>
+      <c r="BR26" s="38"/>
+      <c r="BS26" s="38"/>
+      <c r="BT26" s="38"/>
+      <c r="BU26" s="38"/>
+      <c r="BV26" s="38"/>
+      <c r="BW26" s="38"/>
+      <c r="BX26" s="38"/>
+      <c r="BY26" s="38"/>
+      <c r="BZ26" s="38"/>
+      <c r="CA26" s="38"/>
+      <c r="CB26" s="38"/>
+      <c r="CC26" s="38"/>
+      <c r="CD26" s="38"/>
+      <c r="CE26" s="38"/>
+      <c r="CF26" s="22"/>
     </row>
     <row r="27" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A27" s="39"/>
-      <c r="B27" s="40" t="s">
-        <v>30</v>
+      <c r="B27" s="40">
+        <v>3.1</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
@@ -4058,100 +4094,100 @@
       <c r="H27" s="44">
         <v>0</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
       <c r="N27" s="61"/>
       <c r="O27" s="61"/>
       <c r="P27" s="61"/>
       <c r="Q27" s="61"/>
       <c r="R27" s="61"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="59"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
       <c r="X27" s="51"/>
       <c r="Y27" s="51"/>
       <c r="Z27" s="51"/>
       <c r="AA27" s="51"/>
-      <c r="AB27" s="59"/>
+      <c r="AB27" s="51"/>
       <c r="AC27" s="51"/>
       <c r="AD27" s="51"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="51"/>
-      <c r="AG27" s="59"/>
+      <c r="AG27" s="51"/>
       <c r="AH27" s="51"/>
       <c r="AI27" s="51"/>
       <c r="AJ27" s="51"/>
       <c r="AK27" s="51"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="59"/>
-      <c r="AX27" s="59"/>
-      <c r="AY27" s="59"/>
-      <c r="AZ27" s="59"/>
-      <c r="BA27" s="59"/>
-      <c r="BB27" s="59"/>
-      <c r="BC27" s="59"/>
-      <c r="BD27" s="59"/>
-      <c r="BE27" s="59"/>
-      <c r="BF27" s="59"/>
-      <c r="BG27" s="64"/>
-      <c r="BH27" s="64"/>
-      <c r="BI27" s="64"/>
-      <c r="BJ27" s="64"/>
-      <c r="BK27" s="64"/>
-      <c r="BL27" s="59"/>
-      <c r="BM27" s="59"/>
-      <c r="BN27" s="59"/>
-      <c r="BO27" s="59"/>
-      <c r="BP27" s="59"/>
-      <c r="BQ27" s="59"/>
-      <c r="BR27" s="59"/>
-      <c r="BS27" s="59"/>
-      <c r="BT27" s="59"/>
-      <c r="BU27" s="59"/>
-      <c r="BV27" s="65"/>
-      <c r="BW27" s="65"/>
-      <c r="BX27" s="65"/>
-      <c r="BY27" s="65"/>
-      <c r="BZ27" s="65"/>
-      <c r="CA27" s="59"/>
-      <c r="CB27" s="59"/>
-      <c r="CC27" s="59"/>
-      <c r="CD27" s="59"/>
-      <c r="CE27" s="66"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51"/>
+      <c r="AP27" s="51"/>
+      <c r="AQ27" s="51"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="51"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="51"/>
+      <c r="AZ27" s="51"/>
+      <c r="BA27" s="51"/>
+      <c r="BB27" s="51"/>
+      <c r="BC27" s="51"/>
+      <c r="BD27" s="51"/>
+      <c r="BE27" s="51"/>
+      <c r="BF27" s="51"/>
+      <c r="BG27" s="53"/>
+      <c r="BH27" s="53"/>
+      <c r="BI27" s="53"/>
+      <c r="BJ27" s="53"/>
+      <c r="BK27" s="53"/>
+      <c r="BL27" s="51"/>
+      <c r="BM27" s="51"/>
+      <c r="BN27" s="51"/>
+      <c r="BO27" s="51"/>
+      <c r="BP27" s="51"/>
+      <c r="BQ27" s="51"/>
+      <c r="BR27" s="51"/>
+      <c r="BS27" s="51"/>
+      <c r="BT27" s="51"/>
+      <c r="BU27" s="51"/>
+      <c r="BV27" s="54"/>
+      <c r="BW27" s="54"/>
+      <c r="BX27" s="54"/>
+      <c r="BY27" s="54"/>
+      <c r="BZ27" s="54"/>
+      <c r="CA27" s="51"/>
+      <c r="CB27" s="51"/>
+      <c r="CC27" s="51"/>
+      <c r="CD27" s="51"/>
+      <c r="CE27" s="55"/>
       <c r="CF27" s="39"/>
     </row>
     <row r="28" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A28" s="39"/>
-      <c r="B28" s="40" t="s">
-        <v>31</v>
+      <c r="B28" s="40">
+        <v>3.2</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
       <c r="G28" s="43">
         <v>0</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="44">
         <v>0</v>
       </c>
       <c r="I28" s="56"/>
@@ -4164,25 +4200,25 @@
       <c r="P28" s="61"/>
       <c r="Q28" s="61"/>
       <c r="R28" s="61"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
       <c r="W28" s="59"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
       <c r="AB28" s="59"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
       <c r="AG28" s="59"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
       <c r="AL28" s="59"/>
       <c r="AM28" s="59"/>
       <c r="AN28" s="59"/>
@@ -4231,298 +4267,298 @@
       <c r="CE28" s="66"/>
       <c r="CF28" s="39"/>
     </row>
-    <row r="29" spans="1:84" ht="21" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="32">
-        <v>4</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="38"/>
-      <c r="AT29" s="38"/>
-      <c r="AU29" s="38"/>
-      <c r="AV29" s="38"/>
-      <c r="AW29" s="38"/>
-      <c r="AX29" s="38"/>
-      <c r="AY29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="38"/>
-      <c r="BB29" s="38"/>
-      <c r="BC29" s="38"/>
-      <c r="BD29" s="38"/>
-      <c r="BE29" s="38"/>
-      <c r="BF29" s="38"/>
-      <c r="BG29" s="38"/>
-      <c r="BH29" s="38"/>
-      <c r="BI29" s="38"/>
-      <c r="BJ29" s="38"/>
-      <c r="BK29" s="38"/>
-      <c r="BL29" s="38"/>
-      <c r="BM29" s="38"/>
-      <c r="BN29" s="38"/>
-      <c r="BO29" s="38"/>
-      <c r="BP29" s="38"/>
-      <c r="BQ29" s="38"/>
-      <c r="BR29" s="38"/>
-      <c r="BS29" s="38"/>
-      <c r="BT29" s="38"/>
-      <c r="BU29" s="38"/>
-      <c r="BV29" s="38"/>
-      <c r="BW29" s="38"/>
-      <c r="BX29" s="38"/>
-      <c r="BY29" s="38"/>
-      <c r="BZ29" s="38"/>
-      <c r="CA29" s="38"/>
-      <c r="CB29" s="38"/>
-      <c r="CC29" s="38"/>
-      <c r="CD29" s="38"/>
-      <c r="CE29" s="38"/>
-      <c r="CF29" s="22"/>
+    <row r="29" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43">
+        <v>0</v>
+      </c>
+      <c r="H29" s="44">
+        <v>0</v>
+      </c>
+      <c r="I29" s="56"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="51"/>
+      <c r="AJ29" s="51"/>
+      <c r="AK29" s="51"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="63"/>
+      <c r="AV29" s="63"/>
+      <c r="AW29" s="59"/>
+      <c r="AX29" s="59"/>
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="59"/>
+      <c r="BA29" s="59"/>
+      <c r="BB29" s="59"/>
+      <c r="BC29" s="59"/>
+      <c r="BD29" s="59"/>
+      <c r="BE29" s="59"/>
+      <c r="BF29" s="59"/>
+      <c r="BG29" s="64"/>
+      <c r="BH29" s="64"/>
+      <c r="BI29" s="64"/>
+      <c r="BJ29" s="64"/>
+      <c r="BK29" s="64"/>
+      <c r="BL29" s="59"/>
+      <c r="BM29" s="59"/>
+      <c r="BN29" s="59"/>
+      <c r="BO29" s="59"/>
+      <c r="BP29" s="59"/>
+      <c r="BQ29" s="59"/>
+      <c r="BR29" s="59"/>
+      <c r="BS29" s="59"/>
+      <c r="BT29" s="59"/>
+      <c r="BU29" s="59"/>
+      <c r="BV29" s="65"/>
+      <c r="BW29" s="65"/>
+      <c r="BX29" s="65"/>
+      <c r="BY29" s="65"/>
+      <c r="BZ29" s="65"/>
+      <c r="CA29" s="59"/>
+      <c r="CB29" s="59"/>
+      <c r="CC29" s="59"/>
+      <c r="CD29" s="59"/>
+      <c r="CE29" s="66"/>
+      <c r="CF29" s="39"/>
     </row>
     <row r="30" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="39"/>
-      <c r="B30" s="40">
-        <v>4.0999999999999996</v>
+      <c r="B30" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="43">
         <v>0</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="67">
         <v>0</v>
       </c>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="59"/>
       <c r="X30" s="51"/>
       <c r="Y30" s="51"/>
       <c r="Z30" s="51"/>
       <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
+      <c r="AB30" s="59"/>
       <c r="AC30" s="51"/>
       <c r="AD30" s="51"/>
       <c r="AE30" s="51"/>
       <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
+      <c r="AG30" s="59"/>
       <c r="AH30" s="51"/>
       <c r="AI30" s="51"/>
       <c r="AJ30" s="51"/>
       <c r="AK30" s="51"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="52"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="52"/>
-      <c r="AW30" s="51"/>
-      <c r="AX30" s="51"/>
-      <c r="AY30" s="51"/>
-      <c r="AZ30" s="51"/>
-      <c r="BA30" s="51"/>
-      <c r="BB30" s="51"/>
-      <c r="BC30" s="51"/>
-      <c r="BD30" s="51"/>
-      <c r="BE30" s="51"/>
-      <c r="BF30" s="51"/>
-      <c r="BG30" s="53"/>
-      <c r="BH30" s="53"/>
-      <c r="BI30" s="53"/>
-      <c r="BJ30" s="53"/>
-      <c r="BK30" s="53"/>
-      <c r="BL30" s="51"/>
-      <c r="BM30" s="51"/>
-      <c r="BN30" s="51"/>
-      <c r="BO30" s="51"/>
-      <c r="BP30" s="51"/>
-      <c r="BQ30" s="51"/>
-      <c r="BR30" s="51"/>
-      <c r="BS30" s="51"/>
-      <c r="BT30" s="51"/>
-      <c r="BU30" s="51"/>
-      <c r="BV30" s="54"/>
-      <c r="BW30" s="54"/>
-      <c r="BX30" s="54"/>
-      <c r="BY30" s="54"/>
-      <c r="BZ30" s="54"/>
-      <c r="CA30" s="51"/>
-      <c r="CB30" s="51"/>
-      <c r="CC30" s="51"/>
-      <c r="CD30" s="51"/>
-      <c r="CE30" s="55"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="63"/>
+      <c r="AV30" s="63"/>
+      <c r="AW30" s="59"/>
+      <c r="AX30" s="59"/>
+      <c r="AY30" s="59"/>
+      <c r="AZ30" s="59"/>
+      <c r="BA30" s="59"/>
+      <c r="BB30" s="59"/>
+      <c r="BC30" s="59"/>
+      <c r="BD30" s="59"/>
+      <c r="BE30" s="59"/>
+      <c r="BF30" s="59"/>
+      <c r="BG30" s="64"/>
+      <c r="BH30" s="64"/>
+      <c r="BI30" s="64"/>
+      <c r="BJ30" s="64"/>
+      <c r="BK30" s="64"/>
+      <c r="BL30" s="59"/>
+      <c r="BM30" s="59"/>
+      <c r="BN30" s="59"/>
+      <c r="BO30" s="59"/>
+      <c r="BP30" s="59"/>
+      <c r="BQ30" s="59"/>
+      <c r="BR30" s="59"/>
+      <c r="BS30" s="59"/>
+      <c r="BT30" s="59"/>
+      <c r="BU30" s="59"/>
+      <c r="BV30" s="65"/>
+      <c r="BW30" s="65"/>
+      <c r="BX30" s="65"/>
+      <c r="BY30" s="65"/>
+      <c r="BZ30" s="65"/>
+      <c r="CA30" s="59"/>
+      <c r="CB30" s="59"/>
+      <c r="CC30" s="59"/>
+      <c r="CD30" s="59"/>
+      <c r="CE30" s="66"/>
       <c r="CF30" s="39"/>
     </row>
-    <row r="31" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40">
-        <v>4.2</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43">
-        <v>0</v>
-      </c>
-      <c r="H31" s="44">
-        <v>0</v>
-      </c>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="59"/>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="59"/>
-      <c r="AN31" s="59"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="59"/>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="63"/>
-      <c r="AV31" s="63"/>
-      <c r="AW31" s="59"/>
-      <c r="AX31" s="59"/>
-      <c r="AY31" s="59"/>
-      <c r="AZ31" s="59"/>
-      <c r="BA31" s="59"/>
-      <c r="BB31" s="59"/>
-      <c r="BC31" s="59"/>
-      <c r="BD31" s="59"/>
-      <c r="BE31" s="59"/>
-      <c r="BF31" s="59"/>
-      <c r="BG31" s="64"/>
-      <c r="BH31" s="64"/>
-      <c r="BI31" s="64"/>
-      <c r="BJ31" s="64"/>
-      <c r="BK31" s="64"/>
-      <c r="BL31" s="59"/>
-      <c r="BM31" s="59"/>
-      <c r="BN31" s="59"/>
-      <c r="BO31" s="59"/>
-      <c r="BP31" s="59"/>
-      <c r="BQ31" s="59"/>
-      <c r="BR31" s="59"/>
-      <c r="BS31" s="59"/>
-      <c r="BT31" s="59"/>
-      <c r="BU31" s="59"/>
-      <c r="BV31" s="65"/>
-      <c r="BW31" s="65"/>
-      <c r="BX31" s="65"/>
-      <c r="BY31" s="65"/>
-      <c r="BZ31" s="65"/>
-      <c r="CA31" s="59"/>
-      <c r="CB31" s="59"/>
-      <c r="CC31" s="59"/>
-      <c r="CD31" s="59"/>
-      <c r="CE31" s="66"/>
-      <c r="CF31" s="39"/>
+    <row r="31" spans="1:84" ht="21" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="32">
+        <v>4</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="38"/>
+      <c r="AQ31" s="38"/>
+      <c r="AR31" s="38"/>
+      <c r="AS31" s="38"/>
+      <c r="AT31" s="38"/>
+      <c r="AU31" s="38"/>
+      <c r="AV31" s="38"/>
+      <c r="AW31" s="38"/>
+      <c r="AX31" s="38"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="38"/>
+      <c r="BA31" s="38"/>
+      <c r="BB31" s="38"/>
+      <c r="BC31" s="38"/>
+      <c r="BD31" s="38"/>
+      <c r="BE31" s="38"/>
+      <c r="BF31" s="38"/>
+      <c r="BG31" s="38"/>
+      <c r="BH31" s="38"/>
+      <c r="BI31" s="38"/>
+      <c r="BJ31" s="38"/>
+      <c r="BK31" s="38"/>
+      <c r="BL31" s="38"/>
+      <c r="BM31" s="38"/>
+      <c r="BN31" s="38"/>
+      <c r="BO31" s="38"/>
+      <c r="BP31" s="38"/>
+      <c r="BQ31" s="38"/>
+      <c r="BR31" s="38"/>
+      <c r="BS31" s="38"/>
+      <c r="BT31" s="38"/>
+      <c r="BU31" s="38"/>
+      <c r="BV31" s="38"/>
+      <c r="BW31" s="38"/>
+      <c r="BX31" s="38"/>
+      <c r="BY31" s="38"/>
+      <c r="BZ31" s="38"/>
+      <c r="CA31" s="38"/>
+      <c r="CB31" s="38"/>
+      <c r="CC31" s="38"/>
+      <c r="CD31" s="38"/>
+      <c r="CE31" s="38"/>
+      <c r="CF31" s="22"/>
     </row>
     <row r="32" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="39"/>
       <c r="B32" s="40">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
@@ -4532,100 +4568,100 @@
       <c r="H32" s="44">
         <v>0</v>
       </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="59"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="50"/>
       <c r="R32" s="50"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="59"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
       <c r="Z32" s="51"/>
       <c r="AA32" s="51"/>
-      <c r="AB32" s="59"/>
+      <c r="AB32" s="51"/>
       <c r="AC32" s="51"/>
       <c r="AD32" s="51"/>
       <c r="AE32" s="51"/>
       <c r="AF32" s="51"/>
-      <c r="AG32" s="59"/>
+      <c r="AG32" s="51"/>
       <c r="AH32" s="51"/>
       <c r="AI32" s="51"/>
       <c r="AJ32" s="51"/>
       <c r="AK32" s="51"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
-      <c r="AU32" s="63"/>
-      <c r="AV32" s="63"/>
-      <c r="AW32" s="59"/>
-      <c r="AX32" s="59"/>
-      <c r="AY32" s="59"/>
-      <c r="AZ32" s="59"/>
-      <c r="BA32" s="59"/>
-      <c r="BB32" s="59"/>
-      <c r="BC32" s="59"/>
-      <c r="BD32" s="59"/>
-      <c r="BE32" s="59"/>
-      <c r="BF32" s="59"/>
-      <c r="BG32" s="64"/>
-      <c r="BH32" s="64"/>
-      <c r="BI32" s="64"/>
-      <c r="BJ32" s="64"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="59"/>
-      <c r="BM32" s="59"/>
-      <c r="BN32" s="59"/>
-      <c r="BO32" s="59"/>
-      <c r="BP32" s="59"/>
-      <c r="BQ32" s="59"/>
-      <c r="BR32" s="59"/>
-      <c r="BS32" s="59"/>
-      <c r="BT32" s="59"/>
-      <c r="BU32" s="59"/>
-      <c r="BV32" s="65"/>
-      <c r="BW32" s="65"/>
-      <c r="BX32" s="65"/>
-      <c r="BY32" s="65"/>
-      <c r="BZ32" s="65"/>
-      <c r="CA32" s="59"/>
-      <c r="CB32" s="59"/>
-      <c r="CC32" s="59"/>
-      <c r="CD32" s="59"/>
-      <c r="CE32" s="66"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="51"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="51"/>
+      <c r="AZ32" s="51"/>
+      <c r="BA32" s="51"/>
+      <c r="BB32" s="51"/>
+      <c r="BC32" s="51"/>
+      <c r="BD32" s="51"/>
+      <c r="BE32" s="51"/>
+      <c r="BF32" s="51"/>
+      <c r="BG32" s="53"/>
+      <c r="BH32" s="53"/>
+      <c r="BI32" s="53"/>
+      <c r="BJ32" s="53"/>
+      <c r="BK32" s="53"/>
+      <c r="BL32" s="51"/>
+      <c r="BM32" s="51"/>
+      <c r="BN32" s="51"/>
+      <c r="BO32" s="51"/>
+      <c r="BP32" s="51"/>
+      <c r="BQ32" s="51"/>
+      <c r="BR32" s="51"/>
+      <c r="BS32" s="51"/>
+      <c r="BT32" s="51"/>
+      <c r="BU32" s="51"/>
+      <c r="BV32" s="54"/>
+      <c r="BW32" s="54"/>
+      <c r="BX32" s="54"/>
+      <c r="BY32" s="54"/>
+      <c r="BZ32" s="54"/>
+      <c r="CA32" s="51"/>
+      <c r="CB32" s="51"/>
+      <c r="CC32" s="51"/>
+      <c r="CD32" s="51"/>
+      <c r="CE32" s="55"/>
       <c r="CF32" s="39"/>
     </row>
     <row r="33" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="39"/>
       <c r="B33" s="40">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
       <c r="G33" s="43">
         <v>0</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="44">
         <v>0</v>
       </c>
       <c r="I33" s="56"/>
@@ -4638,25 +4674,25 @@
       <c r="P33" s="50"/>
       <c r="Q33" s="50"/>
       <c r="R33" s="50"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
       <c r="W33" s="59"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
       <c r="AB33" s="59"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="51"/>
-      <c r="AF33" s="51"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
       <c r="AG33" s="59"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="51"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
       <c r="AL33" s="59"/>
       <c r="AM33" s="59"/>
       <c r="AN33" s="59"/>
@@ -4705,177 +4741,197 @@
       <c r="CE33" s="66"/>
       <c r="CF33" s="39"/>
     </row>
-    <row r="34" spans="1:84" ht="21" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="22"/>
-      <c r="AL34" s="22"/>
-      <c r="AM34" s="22"/>
-      <c r="AN34" s="22"/>
-      <c r="AO34" s="22"/>
-      <c r="AP34" s="22"/>
-      <c r="AQ34" s="22"/>
-      <c r="AR34" s="22"/>
-      <c r="AS34" s="22"/>
-      <c r="AT34" s="22"/>
-      <c r="AU34" s="22"/>
-      <c r="AV34" s="22"/>
-      <c r="AW34" s="22"/>
-      <c r="AX34" s="22"/>
-      <c r="AY34" s="22"/>
-      <c r="AZ34" s="22"/>
-      <c r="BA34" s="22"/>
-      <c r="BB34" s="22"/>
-      <c r="BC34" s="22"/>
-      <c r="BD34" s="22"/>
-      <c r="BE34" s="22"/>
-      <c r="BF34" s="22"/>
-      <c r="BG34" s="22"/>
-      <c r="BH34" s="22"/>
-      <c r="BI34" s="22"/>
-      <c r="BJ34" s="22"/>
-      <c r="BK34" s="22"/>
-      <c r="BL34" s="22"/>
-      <c r="BM34" s="22"/>
-      <c r="BN34" s="22"/>
-      <c r="BO34" s="22"/>
-      <c r="BP34" s="22"/>
-      <c r="BQ34" s="22"/>
-      <c r="BR34" s="22"/>
-      <c r="BS34" s="22"/>
-      <c r="BT34" s="22"/>
-      <c r="BU34" s="22"/>
-      <c r="BV34" s="22"/>
-      <c r="BW34" s="22"/>
-      <c r="BX34" s="22"/>
-      <c r="BY34" s="22"/>
-      <c r="BZ34" s="22"/>
-      <c r="CA34" s="22"/>
-      <c r="CB34" s="22"/>
-      <c r="CC34" s="22"/>
-      <c r="CD34" s="22"/>
-      <c r="CE34" s="22"/>
-      <c r="CF34" s="22"/>
+    <row r="34" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40">
+        <v>4.3</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44">
+        <v>0</v>
+      </c>
+      <c r="I34" s="56"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="63"/>
+      <c r="AV34" s="63"/>
+      <c r="AW34" s="59"/>
+      <c r="AX34" s="59"/>
+      <c r="AY34" s="59"/>
+      <c r="AZ34" s="59"/>
+      <c r="BA34" s="59"/>
+      <c r="BB34" s="59"/>
+      <c r="BC34" s="59"/>
+      <c r="BD34" s="59"/>
+      <c r="BE34" s="59"/>
+      <c r="BF34" s="59"/>
+      <c r="BG34" s="64"/>
+      <c r="BH34" s="64"/>
+      <c r="BI34" s="64"/>
+      <c r="BJ34" s="64"/>
+      <c r="BK34" s="64"/>
+      <c r="BL34" s="59"/>
+      <c r="BM34" s="59"/>
+      <c r="BN34" s="59"/>
+      <c r="BO34" s="59"/>
+      <c r="BP34" s="59"/>
+      <c r="BQ34" s="59"/>
+      <c r="BR34" s="59"/>
+      <c r="BS34" s="59"/>
+      <c r="BT34" s="59"/>
+      <c r="BU34" s="59"/>
+      <c r="BV34" s="65"/>
+      <c r="BW34" s="65"/>
+      <c r="BX34" s="65"/>
+      <c r="BY34" s="65"/>
+      <c r="BZ34" s="65"/>
+      <c r="CA34" s="59"/>
+      <c r="CB34" s="59"/>
+      <c r="CC34" s="59"/>
+      <c r="CD34" s="59"/>
+      <c r="CE34" s="66"/>
+      <c r="CF34" s="39"/>
     </row>
-    <row r="35" spans="1:84" ht="21" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="22"/>
-      <c r="AM35" s="22"/>
-      <c r="AN35" s="22"/>
-      <c r="AO35" s="22"/>
-      <c r="AP35" s="22"/>
-      <c r="AQ35" s="22"/>
-      <c r="AR35" s="22"/>
-      <c r="AS35" s="22"/>
-      <c r="AT35" s="22"/>
-      <c r="AU35" s="22"/>
-      <c r="AV35" s="22"/>
-      <c r="AW35" s="22"/>
-      <c r="AX35" s="22"/>
-      <c r="AY35" s="22"/>
-      <c r="AZ35" s="22"/>
-      <c r="BA35" s="22"/>
-      <c r="BB35" s="22"/>
-      <c r="BC35" s="22"/>
-      <c r="BD35" s="22"/>
-      <c r="BE35" s="22"/>
-      <c r="BF35" s="22"/>
-      <c r="BG35" s="22"/>
-      <c r="BH35" s="22"/>
-      <c r="BI35" s="22"/>
-      <c r="BJ35" s="22"/>
-      <c r="BK35" s="22"/>
-      <c r="BL35" s="22"/>
-      <c r="BM35" s="22"/>
-      <c r="BN35" s="22"/>
-      <c r="BO35" s="22"/>
-      <c r="BP35" s="22"/>
-      <c r="BQ35" s="22"/>
-      <c r="BR35" s="22"/>
-      <c r="BS35" s="22"/>
-      <c r="BT35" s="22"/>
-      <c r="BU35" s="22"/>
-      <c r="BV35" s="22"/>
-      <c r="BW35" s="22"/>
-      <c r="BX35" s="22"/>
-      <c r="BY35" s="22"/>
-      <c r="BZ35" s="22"/>
-      <c r="CA35" s="22"/>
-      <c r="CB35" s="22"/>
-      <c r="CC35" s="22"/>
-      <c r="CD35" s="22"/>
-      <c r="CE35" s="22"/>
-      <c r="CF35" s="22"/>
+    <row r="35" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43">
+        <v>0</v>
+      </c>
+      <c r="H35" s="67">
+        <v>0</v>
+      </c>
+      <c r="I35" s="56"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="63"/>
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="59"/>
+      <c r="AX35" s="59"/>
+      <c r="AY35" s="59"/>
+      <c r="AZ35" s="59"/>
+      <c r="BA35" s="59"/>
+      <c r="BB35" s="59"/>
+      <c r="BC35" s="59"/>
+      <c r="BD35" s="59"/>
+      <c r="BE35" s="59"/>
+      <c r="BF35" s="59"/>
+      <c r="BG35" s="64"/>
+      <c r="BH35" s="64"/>
+      <c r="BI35" s="64"/>
+      <c r="BJ35" s="64"/>
+      <c r="BK35" s="64"/>
+      <c r="BL35" s="59"/>
+      <c r="BM35" s="59"/>
+      <c r="BN35" s="59"/>
+      <c r="BO35" s="59"/>
+      <c r="BP35" s="59"/>
+      <c r="BQ35" s="59"/>
+      <c r="BR35" s="59"/>
+      <c r="BS35" s="59"/>
+      <c r="BT35" s="59"/>
+      <c r="BU35" s="59"/>
+      <c r="BV35" s="65"/>
+      <c r="BW35" s="65"/>
+      <c r="BX35" s="65"/>
+      <c r="BY35" s="65"/>
+      <c r="BZ35" s="65"/>
+      <c r="CA35" s="59"/>
+      <c r="CB35" s="59"/>
+      <c r="CC35" s="59"/>
+      <c r="CD35" s="59"/>
+      <c r="CE35" s="66"/>
+      <c r="CF35" s="39"/>
     </row>
     <row r="36" spans="1:84" ht="21" customHeight="1">
       <c r="A36" s="22"/>
@@ -4963,24 +5019,191 @@
       <c r="CE36" s="22"/>
       <c r="CF36" s="22"/>
     </row>
+    <row r="37" spans="1:84" ht="21" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="22"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="22"/>
+      <c r="AR37" s="22"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="AW37" s="22"/>
+      <c r="AX37" s="22"/>
+      <c r="AY37" s="22"/>
+      <c r="AZ37" s="22"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="22"/>
+      <c r="BC37" s="22"/>
+      <c r="BD37" s="22"/>
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="22"/>
+      <c r="BG37" s="22"/>
+      <c r="BH37" s="22"/>
+      <c r="BI37" s="22"/>
+      <c r="BJ37" s="22"/>
+      <c r="BK37" s="22"/>
+      <c r="BL37" s="22"/>
+      <c r="BM37" s="22"/>
+      <c r="BN37" s="22"/>
+      <c r="BO37" s="22"/>
+      <c r="BP37" s="22"/>
+      <c r="BQ37" s="22"/>
+      <c r="BR37" s="22"/>
+      <c r="BS37" s="22"/>
+      <c r="BT37" s="22"/>
+      <c r="BU37" s="22"/>
+      <c r="BV37" s="22"/>
+      <c r="BW37" s="22"/>
+      <c r="BX37" s="22"/>
+      <c r="BY37" s="22"/>
+      <c r="BZ37" s="22"/>
+      <c r="CA37" s="22"/>
+      <c r="CB37" s="22"/>
+      <c r="CC37" s="22"/>
+      <c r="CD37" s="22"/>
+      <c r="CE37" s="22"/>
+      <c r="CF37" s="22"/>
+    </row>
+    <row r="38" spans="1:84" ht="21" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
+      <c r="AQ38" s="22"/>
+      <c r="AR38" s="22"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="22"/>
+      <c r="AU38" s="22"/>
+      <c r="AV38" s="22"/>
+      <c r="AW38" s="22"/>
+      <c r="AX38" s="22"/>
+      <c r="AY38" s="22"/>
+      <c r="AZ38" s="22"/>
+      <c r="BA38" s="22"/>
+      <c r="BB38" s="22"/>
+      <c r="BC38" s="22"/>
+      <c r="BD38" s="22"/>
+      <c r="BE38" s="22"/>
+      <c r="BF38" s="22"/>
+      <c r="BG38" s="22"/>
+      <c r="BH38" s="22"/>
+      <c r="BI38" s="22"/>
+      <c r="BJ38" s="22"/>
+      <c r="BK38" s="22"/>
+      <c r="BL38" s="22"/>
+      <c r="BM38" s="22"/>
+      <c r="BN38" s="22"/>
+      <c r="BO38" s="22"/>
+      <c r="BP38" s="22"/>
+      <c r="BQ38" s="22"/>
+      <c r="BR38" s="22"/>
+      <c r="BS38" s="22"/>
+      <c r="BT38" s="22"/>
+      <c r="BU38" s="22"/>
+      <c r="BV38" s="22"/>
+      <c r="BW38" s="22"/>
+      <c r="BX38" s="22"/>
+      <c r="BY38" s="22"/>
+      <c r="BZ38" s="22"/>
+      <c r="CA38" s="22"/>
+      <c r="CB38" s="22"/>
+      <c r="CC38" s="22"/>
+      <c r="CD38" s="22"/>
+      <c r="CE38" s="22"/>
+      <c r="CF38" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AP5"/>
-    <mergeCell ref="O2:AT2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="CA9:CE9"/>
-    <mergeCell ref="BQ9:BU9"/>
-    <mergeCell ref="BQ8:CE8"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
+  <mergeCells count="39">
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="S9:W9"/>
     <mergeCell ref="N9:R9"/>
     <mergeCell ref="I9:M9"/>
@@ -4993,18 +5216,25 @@
     <mergeCell ref="AC9:AG9"/>
     <mergeCell ref="AH9:AL9"/>
     <mergeCell ref="I8:AL8"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="CA9:CE9"/>
+    <mergeCell ref="BQ9:BU9"/>
+    <mergeCell ref="BQ8:CE8"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AP5"/>
+    <mergeCell ref="O2:AT2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="H20:H33 H12:H18">
+  <conditionalFormatting sqref="H22:H35 H12:H20">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5014,7 +5244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H33 H12:H18">
+  <conditionalFormatting sqref="H22:H35 H12:H20">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>

--- a/Gantt chart - Assignment 1 2.xlsx
+++ b/Gantt chart - Assignment 1 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33BAF43-58A0-4AC0-B0D4-2893877C4E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056FA23-86A1-484C-93A4-79796551EC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
   <si>
     <t>Smartsheet Tip ➜</t>
   </si>
@@ -277,6 +277,14 @@
   </si>
   <si>
     <t>Idendifty the business problem</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research Dashboad &amp; Data product to predict the shopping decision</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research how to cluster the customer to different segments &amp; present in the dashboard</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1015,6 +1023,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1022,10 +1087,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1036,58 +1097,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1408,10 +1417,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CF38"/>
+  <dimension ref="A1:CF40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1516,57 +1525,57 @@
     </row>
     <row r="2" spans="1:84" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="78" t="s">
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="96"/>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
       <c r="AU2" s="12"/>
       <c r="AV2" s="12"/>
       <c r="AW2" s="12"/>
@@ -1694,18 +1703,18 @@
     </row>
     <row r="4" spans="1:84" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="76"/>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="101" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="76"/>
       <c r="F4" s="76"/>
       <c r="G4" s="76"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="77" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="76"/>
@@ -1714,7 +1723,7 @@
       <c r="M4" s="76"/>
       <c r="N4" s="76"/>
       <c r="O4" s="76"/>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="100" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="76"/>
@@ -1788,18 +1797,18 @@
     </row>
     <row r="5" spans="1:84" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="77" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="76"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="75" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="76"/>
       <c r="F5" s="76"/>
       <c r="G5" s="76"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="77" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="76"/>
@@ -1808,7 +1817,7 @@
       <c r="M5" s="76"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
-      <c r="P5" s="77">
+      <c r="P5" s="98">
         <v>43962</v>
       </c>
       <c r="Q5" s="76"/>
@@ -1882,16 +1891,16 @@
     </row>
     <row r="6" spans="1:84" ht="32.4" customHeight="1">
       <c r="A6" s="22"/>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="77" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="76"/>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="24"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -2058,237 +2067,237 @@
     </row>
     <row r="8" spans="1:84" ht="17.25" customHeight="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="95"/>
-      <c r="AJ8" s="95"/>
-      <c r="AK8" s="95"/>
-      <c r="AL8" s="96"/>
-      <c r="AM8" s="90" t="s">
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
-      <c r="BA8" s="85"/>
-      <c r="BB8" s="88" t="s">
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="BC8" s="85"/>
-      <c r="BD8" s="85"/>
-      <c r="BE8" s="85"/>
-      <c r="BF8" s="85"/>
-      <c r="BG8" s="85"/>
-      <c r="BH8" s="85"/>
-      <c r="BI8" s="85"/>
-      <c r="BJ8" s="85"/>
-      <c r="BK8" s="85"/>
-      <c r="BL8" s="85"/>
-      <c r="BM8" s="85"/>
-      <c r="BN8" s="85"/>
-      <c r="BO8" s="85"/>
-      <c r="BP8" s="85"/>
-      <c r="BQ8" s="84" t="s">
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="74"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="BR8" s="85"/>
-      <c r="BS8" s="85"/>
-      <c r="BT8" s="85"/>
-      <c r="BU8" s="85"/>
-      <c r="BV8" s="85"/>
-      <c r="BW8" s="85"/>
-      <c r="BX8" s="85"/>
-      <c r="BY8" s="85"/>
-      <c r="BZ8" s="85"/>
-      <c r="CA8" s="85"/>
-      <c r="CB8" s="85"/>
-      <c r="CC8" s="85"/>
-      <c r="CD8" s="85"/>
-      <c r="CE8" s="86"/>
+      <c r="BR8" s="74"/>
+      <c r="BS8" s="74"/>
+      <c r="BT8" s="74"/>
+      <c r="BU8" s="74"/>
+      <c r="BV8" s="74"/>
+      <c r="BW8" s="74"/>
+      <c r="BX8" s="74"/>
+      <c r="BY8" s="74"/>
+      <c r="BZ8" s="74"/>
+      <c r="CA8" s="74"/>
+      <c r="CB8" s="74"/>
+      <c r="CC8" s="74"/>
+      <c r="CD8" s="74"/>
+      <c r="CE8" s="92"/>
       <c r="CF8" s="22"/>
     </row>
     <row r="9" spans="1:84" ht="17.25" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="89" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="89" t="s">
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="89" t="s">
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="89" t="s">
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="89" t="s">
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="89" t="s">
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="81"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="91" t="s">
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="81"/>
+      <c r="AK9" s="81"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="91" t="s">
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="91" t="s">
+      <c r="AS9" s="81"/>
+      <c r="AT9" s="81"/>
+      <c r="AU9" s="81"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="AX9" s="82"/>
-      <c r="AY9" s="82"/>
-      <c r="AZ9" s="82"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="87" t="s">
+      <c r="AX9" s="81"/>
+      <c r="AY9" s="81"/>
+      <c r="AZ9" s="81"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="BC9" s="82"/>
-      <c r="BD9" s="82"/>
-      <c r="BE9" s="82"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="87" t="s">
+      <c r="BC9" s="81"/>
+      <c r="BD9" s="81"/>
+      <c r="BE9" s="81"/>
+      <c r="BF9" s="82"/>
+      <c r="BG9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="BH9" s="82"/>
-      <c r="BI9" s="82"/>
-      <c r="BJ9" s="82"/>
-      <c r="BK9" s="83"/>
-      <c r="BL9" s="87" t="s">
+      <c r="BH9" s="81"/>
+      <c r="BI9" s="81"/>
+      <c r="BJ9" s="81"/>
+      <c r="BK9" s="82"/>
+      <c r="BL9" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="BM9" s="82"/>
-      <c r="BN9" s="82"/>
-      <c r="BO9" s="82"/>
-      <c r="BP9" s="83"/>
-      <c r="BQ9" s="81" t="s">
+      <c r="BM9" s="81"/>
+      <c r="BN9" s="81"/>
+      <c r="BO9" s="81"/>
+      <c r="BP9" s="82"/>
+      <c r="BQ9" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="BR9" s="82"/>
-      <c r="BS9" s="82"/>
-      <c r="BT9" s="82"/>
-      <c r="BU9" s="83"/>
-      <c r="BV9" s="81" t="s">
+      <c r="BR9" s="81"/>
+      <c r="BS9" s="81"/>
+      <c r="BT9" s="81"/>
+      <c r="BU9" s="82"/>
+      <c r="BV9" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="BW9" s="82"/>
-      <c r="BX9" s="82"/>
-      <c r="BY9" s="82"/>
-      <c r="BZ9" s="83"/>
-      <c r="CA9" s="81" t="s">
+      <c r="BW9" s="81"/>
+      <c r="BX9" s="81"/>
+      <c r="BY9" s="81"/>
+      <c r="BZ9" s="82"/>
+      <c r="CA9" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="CB9" s="82"/>
-      <c r="CC9" s="82"/>
-      <c r="CD9" s="82"/>
-      <c r="CE9" s="83"/>
+      <c r="CB9" s="81"/>
+      <c r="CC9" s="81"/>
+      <c r="CD9" s="81"/>
+      <c r="CE9" s="82"/>
       <c r="CF9" s="26"/>
     </row>
     <row r="10" spans="1:84" ht="17.25" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
       <c r="I10" s="28" t="s">
         <v>24</v>
       </c>
@@ -2624,7 +2633,7 @@
         <v>43963</v>
       </c>
       <c r="G12" s="43">
-        <f t="shared" ref="G12:G20" si="0">DAYS360(E12,F12)</f>
+        <f t="shared" ref="G12:G22" si="0">DAYS360(E12,F12)</f>
         <v>8</v>
       </c>
       <c r="H12" s="44">
@@ -2830,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="44">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="57"/>
@@ -2924,14 +2933,14 @@
         <v>43964</v>
       </c>
       <c r="F15" s="42">
-        <v>43976</v>
+        <v>43979</v>
       </c>
       <c r="G15" s="43">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15" s="67">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I15" s="56"/>
       <c r="J15" s="57"/>
@@ -2949,9 +2958,9 @@
       <c r="V15" s="62"/>
       <c r="W15" s="62"/>
       <c r="X15" s="62"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
       <c r="AD15" s="59"/>
@@ -3025,14 +3034,14 @@
         <v>43965</v>
       </c>
       <c r="F16" s="42">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="G16" s="43">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" s="67">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I16" s="56"/>
       <c r="J16" s="57"/>
@@ -3051,8 +3060,8 @@
       <c r="W16" s="62"/>
       <c r="X16" s="62"/>
       <c r="Y16" s="62"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
       <c r="AD16" s="59"/>
@@ -3114,7 +3123,7 @@
     <row r="17" spans="1:84" s="71" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A17" s="39"/>
       <c r="B17" s="40">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>71</v>
@@ -3133,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="67">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="56"/>
       <c r="J17" s="57"/>
@@ -3212,34 +3221,34 @@
       <c r="CE17" s="66"/>
       <c r="CF17" s="39"/>
     </row>
-    <row r="18" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:84" s="72" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A18" s="39"/>
       <c r="B18" s="40">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="42">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="F18" s="42">
-        <v>43994</v>
+        <v>43979</v>
       </c>
       <c r="G18" s="43">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="H18" s="44">
-        <v>0.1</v>
+        <f t="shared" ref="G18" si="2">DAYS360(E18,F18)</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="67">
+        <v>0.5</v>
       </c>
       <c r="I18" s="56"/>
       <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
       <c r="M18" s="59"/>
       <c r="N18" s="61"/>
       <c r="O18" s="61"/>
@@ -3250,21 +3259,21 @@
       <c r="T18" s="59"/>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
+      <c r="W18" s="62"/>
       <c r="X18" s="62"/>
       <c r="Y18" s="62"/>
       <c r="Z18" s="62"/>
       <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
       <c r="AL18" s="59"/>
       <c r="AM18" s="59"/>
       <c r="AN18" s="59"/>
@@ -3313,27 +3322,29 @@
       <c r="CE18" s="66"/>
       <c r="CF18" s="39"/>
     </row>
-    <row r="19" spans="1:84" s="70" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:84" s="72" customFormat="1" ht="38.4" customHeight="1" outlineLevel="1">
       <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
+      <c r="B19" s="40">
+        <v>1.7</v>
+      </c>
       <c r="C19" s="41" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="42">
-        <v>43980</v>
+        <v>43973</v>
       </c>
       <c r="F19" s="42">
-        <v>43987</v>
+        <v>43983</v>
       </c>
       <c r="G19" s="43">
-        <f t="shared" ref="G19" si="2">DAYS360(E19,F19)</f>
-        <v>6</v>
-      </c>
-      <c r="H19" s="44">
-        <v>0</v>
+        <f t="shared" ref="G19" si="3">DAYS360(E19,F19)</f>
+        <v>9</v>
+      </c>
+      <c r="H19" s="67">
+        <v>0.3</v>
       </c>
       <c r="I19" s="56"/>
       <c r="J19" s="57"/>
@@ -3349,17 +3360,17 @@
       <c r="T19" s="59"/>
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
       <c r="AB19" s="62"/>
       <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
       <c r="AH19" s="59"/>
       <c r="AI19" s="59"/>
       <c r="AJ19" s="59"/>
@@ -3415,31 +3426,31 @@
     <row r="20" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A20" s="39"/>
       <c r="B20" s="40">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="42">
-        <v>43994</v>
+        <v>43976</v>
       </c>
       <c r="F20" s="42">
         <v>43994</v>
       </c>
       <c r="G20" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H20" s="44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I20" s="56"/>
       <c r="J20" s="57"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="59"/>
       <c r="N20" s="61"/>
       <c r="O20" s="61"/>
@@ -3451,19 +3462,19 @@
       <c r="U20" s="59"/>
       <c r="V20" s="59"/>
       <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
       <c r="AK20" s="62"/>
       <c r="AL20" s="59"/>
       <c r="AM20" s="59"/>
@@ -3513,399 +3524,411 @@
       <c r="CE20" s="66"/>
       <c r="CF20" s="39"/>
     </row>
-    <row r="21" spans="1:84" ht="21" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="32">
-        <v>2</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="38"/>
-      <c r="BF21" s="38"/>
-      <c r="BG21" s="38"/>
-      <c r="BH21" s="38"/>
-      <c r="BI21" s="38"/>
-      <c r="BJ21" s="38"/>
-      <c r="BK21" s="38"/>
-      <c r="BL21" s="38"/>
-      <c r="BM21" s="38"/>
-      <c r="BN21" s="38"/>
-      <c r="BO21" s="38"/>
-      <c r="BP21" s="38"/>
-      <c r="BQ21" s="38"/>
-      <c r="BR21" s="38"/>
-      <c r="BS21" s="38"/>
-      <c r="BT21" s="38"/>
-      <c r="BU21" s="38"/>
-      <c r="BV21" s="38"/>
-      <c r="BW21" s="38"/>
-      <c r="BX21" s="38"/>
-      <c r="BY21" s="38"/>
-      <c r="BZ21" s="38"/>
-      <c r="CA21" s="38"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
-      <c r="CD21" s="38"/>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="22"/>
+    <row r="21" spans="1:84" s="70" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="42">
+        <v>43980</v>
+      </c>
+      <c r="F21" s="42">
+        <v>43987</v>
+      </c>
+      <c r="G21" s="43">
+        <f t="shared" ref="G21" si="4">DAYS360(E21,F21)</f>
+        <v>6</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0</v>
+      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
+      <c r="AU21" s="63"/>
+      <c r="AV21" s="63"/>
+      <c r="AW21" s="59"/>
+      <c r="AX21" s="59"/>
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="59"/>
+      <c r="BA21" s="59"/>
+      <c r="BB21" s="59"/>
+      <c r="BC21" s="59"/>
+      <c r="BD21" s="59"/>
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="64"/>
+      <c r="BH21" s="64"/>
+      <c r="BI21" s="64"/>
+      <c r="BJ21" s="64"/>
+      <c r="BK21" s="64"/>
+      <c r="BL21" s="59"/>
+      <c r="BM21" s="59"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="59"/>
+      <c r="BP21" s="59"/>
+      <c r="BQ21" s="59"/>
+      <c r="BR21" s="59"/>
+      <c r="BS21" s="59"/>
+      <c r="BT21" s="59"/>
+      <c r="BU21" s="59"/>
+      <c r="BV21" s="65"/>
+      <c r="BW21" s="65"/>
+      <c r="BX21" s="65"/>
+      <c r="BY21" s="65"/>
+      <c r="BZ21" s="65"/>
+      <c r="CA21" s="59"/>
+      <c r="CB21" s="59"/>
+      <c r="CC21" s="59"/>
+      <c r="CD21" s="59"/>
+      <c r="CE21" s="66"/>
+      <c r="CF21" s="39"/>
     </row>
     <row r="22" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A22" s="39"/>
       <c r="B22" s="40">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D22" s="41" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="42">
-        <v>43995</v>
-      </c>
-      <c r="F22" s="42"/>
+        <v>43994</v>
+      </c>
+      <c r="F22" s="42">
+        <v>43994</v>
+      </c>
       <c r="G22" s="43">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H22" s="44">
         <v>0</v>
       </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="52"/>
-      <c r="AS22" s="52"/>
-      <c r="AT22" s="52"/>
-      <c r="AU22" s="52"/>
-      <c r="AV22" s="52"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="53"/>
-      <c r="BI22" s="53"/>
-      <c r="BJ22" s="53"/>
-      <c r="BK22" s="53"/>
-      <c r="BL22" s="51"/>
-      <c r="BM22" s="51"/>
-      <c r="BN22" s="51"/>
-      <c r="BO22" s="51"/>
-      <c r="BP22" s="51"/>
-      <c r="BQ22" s="51"/>
-      <c r="BR22" s="51"/>
-      <c r="BS22" s="51"/>
-      <c r="BT22" s="51"/>
-      <c r="BU22" s="51"/>
-      <c r="BV22" s="54"/>
-      <c r="BW22" s="54"/>
-      <c r="BX22" s="54"/>
-      <c r="BY22" s="54"/>
-      <c r="BZ22" s="54"/>
-      <c r="CA22" s="51"/>
-      <c r="CB22" s="51"/>
-      <c r="CC22" s="51"/>
-      <c r="CD22" s="51"/>
-      <c r="CE22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="63"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="63"/>
+      <c r="AU22" s="63"/>
+      <c r="AV22" s="63"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="59"/>
+      <c r="BA22" s="59"/>
+      <c r="BB22" s="59"/>
+      <c r="BC22" s="59"/>
+      <c r="BD22" s="59"/>
+      <c r="BE22" s="59"/>
+      <c r="BF22" s="59"/>
+      <c r="BG22" s="64"/>
+      <c r="BH22" s="64"/>
+      <c r="BI22" s="64"/>
+      <c r="BJ22" s="64"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="59"/>
+      <c r="BM22" s="59"/>
+      <c r="BN22" s="59"/>
+      <c r="BO22" s="59"/>
+      <c r="BP22" s="59"/>
+      <c r="BQ22" s="59"/>
+      <c r="BR22" s="59"/>
+      <c r="BS22" s="59"/>
+      <c r="BT22" s="59"/>
+      <c r="BU22" s="59"/>
+      <c r="BV22" s="65"/>
+      <c r="BW22" s="65"/>
+      <c r="BX22" s="65"/>
+      <c r="BY22" s="65"/>
+      <c r="BZ22" s="65"/>
+      <c r="CA22" s="59"/>
+      <c r="CB22" s="59"/>
+      <c r="CC22" s="59"/>
+      <c r="CD22" s="59"/>
+      <c r="CE22" s="66"/>
       <c r="CF22" s="39"/>
     </row>
-    <row r="23" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43">
-        <v>3</v>
-      </c>
-      <c r="H23" s="44">
-        <v>0</v>
-      </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="68"/>
-      <c r="AU23" s="68"/>
-      <c r="AV23" s="68"/>
-      <c r="AW23" s="59"/>
-      <c r="AX23" s="59"/>
-      <c r="AY23" s="59"/>
-      <c r="AZ23" s="59"/>
-      <c r="BA23" s="59"/>
-      <c r="BB23" s="59"/>
-      <c r="BC23" s="59"/>
-      <c r="BD23" s="59"/>
-      <c r="BE23" s="59"/>
-      <c r="BF23" s="59"/>
-      <c r="BG23" s="64"/>
-      <c r="BH23" s="64"/>
-      <c r="BI23" s="64"/>
-      <c r="BJ23" s="64"/>
-      <c r="BK23" s="64"/>
-      <c r="BL23" s="59"/>
-      <c r="BM23" s="59"/>
-      <c r="BN23" s="59"/>
-      <c r="BO23" s="59"/>
-      <c r="BP23" s="59"/>
-      <c r="BQ23" s="59"/>
-      <c r="BR23" s="59"/>
-      <c r="BS23" s="59"/>
-      <c r="BT23" s="59"/>
-      <c r="BU23" s="59"/>
-      <c r="BV23" s="65"/>
-      <c r="BW23" s="65"/>
-      <c r="BX23" s="65"/>
-      <c r="BY23" s="65"/>
-      <c r="BZ23" s="65"/>
-      <c r="CA23" s="59"/>
-      <c r="CB23" s="59"/>
-      <c r="CC23" s="59"/>
-      <c r="CD23" s="59"/>
-      <c r="CE23" s="66"/>
-      <c r="CF23" s="39"/>
+    <row r="23" spans="1:84" ht="21" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="32">
+        <v>2</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="38"/>
+      <c r="AS23" s="38"/>
+      <c r="AT23" s="38"/>
+      <c r="AU23" s="38"/>
+      <c r="AV23" s="38"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="38"/>
+      <c r="AY23" s="38"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="38"/>
+      <c r="BB23" s="38"/>
+      <c r="BC23" s="38"/>
+      <c r="BD23" s="38"/>
+      <c r="BE23" s="38"/>
+      <c r="BF23" s="38"/>
+      <c r="BG23" s="38"/>
+      <c r="BH23" s="38"/>
+      <c r="BI23" s="38"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="38"/>
+      <c r="BO23" s="38"/>
+      <c r="BP23" s="38"/>
+      <c r="BQ23" s="38"/>
+      <c r="BR23" s="38"/>
+      <c r="BS23" s="38"/>
+      <c r="BT23" s="38"/>
+      <c r="BU23" s="38"/>
+      <c r="BV23" s="38"/>
+      <c r="BW23" s="38"/>
+      <c r="BX23" s="38"/>
+      <c r="BY23" s="38"/>
+      <c r="BZ23" s="38"/>
+      <c r="CA23" s="38"/>
+      <c r="CB23" s="38"/>
+      <c r="CC23" s="38"/>
+      <c r="CD23" s="38"/>
+      <c r="CE23" s="38"/>
+      <c r="CF23" s="22"/>
     </row>
     <row r="24" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A24" s="39"/>
       <c r="B24" s="40">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="42">
+        <v>43995</v>
+      </c>
       <c r="F24" s="42"/>
       <c r="G24" s="43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" s="44">
         <v>0</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="63"/>
-      <c r="AS24" s="63"/>
-      <c r="AT24" s="63"/>
-      <c r="AU24" s="63"/>
-      <c r="AV24" s="63"/>
-      <c r="AW24" s="59"/>
-      <c r="AX24" s="59"/>
-      <c r="AY24" s="59"/>
-      <c r="AZ24" s="59"/>
-      <c r="BA24" s="59"/>
-      <c r="BB24" s="59"/>
-      <c r="BC24" s="59"/>
-      <c r="BD24" s="59"/>
-      <c r="BE24" s="59"/>
-      <c r="BF24" s="59"/>
-      <c r="BG24" s="64"/>
-      <c r="BH24" s="64"/>
-      <c r="BI24" s="64"/>
-      <c r="BJ24" s="64"/>
-      <c r="BK24" s="64"/>
-      <c r="BL24" s="59"/>
-      <c r="BM24" s="59"/>
-      <c r="BN24" s="59"/>
-      <c r="BO24" s="59"/>
-      <c r="BP24" s="59"/>
-      <c r="BQ24" s="59"/>
-      <c r="BR24" s="59"/>
-      <c r="BS24" s="59"/>
-      <c r="BT24" s="59"/>
-      <c r="BU24" s="59"/>
-      <c r="BV24" s="65"/>
-      <c r="BW24" s="65"/>
-      <c r="BX24" s="65"/>
-      <c r="BY24" s="65"/>
-      <c r="BZ24" s="65"/>
-      <c r="CA24" s="59"/>
-      <c r="CB24" s="59"/>
-      <c r="CC24" s="59"/>
-      <c r="CD24" s="59"/>
-      <c r="CE24" s="66"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="68"/>
+      <c r="AN24" s="68"/>
+      <c r="AO24" s="68"/>
+      <c r="AP24" s="68"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="52"/>
+      <c r="AT24" s="52"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="52"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="51"/>
+      <c r="BB24" s="51"/>
+      <c r="BC24" s="51"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="53"/>
+      <c r="BH24" s="53"/>
+      <c r="BI24" s="53"/>
+      <c r="BJ24" s="53"/>
+      <c r="BK24" s="53"/>
+      <c r="BL24" s="51"/>
+      <c r="BM24" s="51"/>
+      <c r="BN24" s="51"/>
+      <c r="BO24" s="51"/>
+      <c r="BP24" s="51"/>
+      <c r="BQ24" s="51"/>
+      <c r="BR24" s="51"/>
+      <c r="BS24" s="51"/>
+      <c r="BT24" s="51"/>
+      <c r="BU24" s="51"/>
+      <c r="BV24" s="54"/>
+      <c r="BW24" s="54"/>
+      <c r="BX24" s="54"/>
+      <c r="BY24" s="54"/>
+      <c r="BZ24" s="54"/>
+      <c r="CA24" s="51"/>
+      <c r="CB24" s="51"/>
+      <c r="CC24" s="51"/>
+      <c r="CD24" s="51"/>
+      <c r="CE24" s="55"/>
       <c r="CF24" s="39"/>
     </row>
     <row r="25" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="39"/>
       <c r="B25" s="40">
-        <v>2.4</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="43">
-        <v>0</v>
-      </c>
-      <c r="H25" s="67">
+        <v>3</v>
+      </c>
+      <c r="H25" s="44">
         <v>0</v>
       </c>
       <c r="I25" s="56"/>
@@ -3913,7 +3936,7 @@
       <c r="K25" s="58"/>
       <c r="L25" s="58"/>
       <c r="M25" s="59"/>
-      <c r="N25" s="61"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="61"/>
       <c r="P25" s="61"/>
       <c r="Q25" s="61"/>
@@ -3942,12 +3965,12 @@
       <c r="AN25" s="59"/>
       <c r="AO25" s="59"/>
       <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="68"/>
+      <c r="AS25" s="68"/>
+      <c r="AT25" s="68"/>
+      <c r="AU25" s="68"/>
+      <c r="AV25" s="68"/>
       <c r="AW25" s="59"/>
       <c r="AX25" s="59"/>
       <c r="AY25" s="59"/>
@@ -3985,295 +4008,291 @@
       <c r="CE25" s="66"/>
       <c r="CF25" s="39"/>
     </row>
-    <row r="26" spans="1:84" ht="21" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="32">
-        <v>3</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="38"/>
-      <c r="AN26" s="38"/>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="38"/>
-      <c r="AU26" s="38"/>
-      <c r="AV26" s="38"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="38"/>
-      <c r="AY26" s="38"/>
-      <c r="AZ26" s="38"/>
-      <c r="BA26" s="38"/>
-      <c r="BB26" s="38"/>
-      <c r="BC26" s="38"/>
-      <c r="BD26" s="38"/>
-      <c r="BE26" s="38"/>
-      <c r="BF26" s="38"/>
-      <c r="BG26" s="38"/>
-      <c r="BH26" s="38"/>
-      <c r="BI26" s="38"/>
-      <c r="BJ26" s="38"/>
-      <c r="BK26" s="38"/>
-      <c r="BL26" s="38"/>
-      <c r="BM26" s="38"/>
-      <c r="BN26" s="38"/>
-      <c r="BO26" s="38"/>
-      <c r="BP26" s="38"/>
-      <c r="BQ26" s="38"/>
-      <c r="BR26" s="38"/>
-      <c r="BS26" s="38"/>
-      <c r="BT26" s="38"/>
-      <c r="BU26" s="38"/>
-      <c r="BV26" s="38"/>
-      <c r="BW26" s="38"/>
-      <c r="BX26" s="38"/>
-      <c r="BY26" s="38"/>
-      <c r="BZ26" s="38"/>
-      <c r="CA26" s="38"/>
-      <c r="CB26" s="38"/>
-      <c r="CC26" s="38"/>
-      <c r="CD26" s="38"/>
-      <c r="CE26" s="38"/>
-      <c r="CF26" s="22"/>
+    <row r="26" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0</v>
+      </c>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="63"/>
+      <c r="AV26" s="63"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="59"/>
+      <c r="BB26" s="59"/>
+      <c r="BC26" s="59"/>
+      <c r="BD26" s="59"/>
+      <c r="BE26" s="59"/>
+      <c r="BF26" s="59"/>
+      <c r="BG26" s="64"/>
+      <c r="BH26" s="64"/>
+      <c r="BI26" s="64"/>
+      <c r="BJ26" s="64"/>
+      <c r="BK26" s="64"/>
+      <c r="BL26" s="59"/>
+      <c r="BM26" s="59"/>
+      <c r="BN26" s="59"/>
+      <c r="BO26" s="59"/>
+      <c r="BP26" s="59"/>
+      <c r="BQ26" s="59"/>
+      <c r="BR26" s="59"/>
+      <c r="BS26" s="59"/>
+      <c r="BT26" s="59"/>
+      <c r="BU26" s="59"/>
+      <c r="BV26" s="65"/>
+      <c r="BW26" s="65"/>
+      <c r="BX26" s="65"/>
+      <c r="BY26" s="65"/>
+      <c r="BZ26" s="65"/>
+      <c r="CA26" s="59"/>
+      <c r="CB26" s="59"/>
+      <c r="CC26" s="59"/>
+      <c r="CD26" s="59"/>
+      <c r="CE26" s="66"/>
+      <c r="CF26" s="39"/>
     </row>
     <row r="27" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A27" s="39"/>
       <c r="B27" s="40">
-        <v>3.1</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>37</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="43">
         <v>0</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="67">
         <v>0</v>
       </c>
-      <c r="I27" s="45"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="61"/>
       <c r="O27" s="61"/>
       <c r="P27" s="61"/>
       <c r="Q27" s="61"/>
       <c r="R27" s="61"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="51"/>
-      <c r="AN27" s="51"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="51"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="51"/>
-      <c r="AX27" s="51"/>
-      <c r="AY27" s="51"/>
-      <c r="AZ27" s="51"/>
-      <c r="BA27" s="51"/>
-      <c r="BB27" s="51"/>
-      <c r="BC27" s="51"/>
-      <c r="BD27" s="51"/>
-      <c r="BE27" s="51"/>
-      <c r="BF27" s="51"/>
-      <c r="BG27" s="53"/>
-      <c r="BH27" s="53"/>
-      <c r="BI27" s="53"/>
-      <c r="BJ27" s="53"/>
-      <c r="BK27" s="53"/>
-      <c r="BL27" s="51"/>
-      <c r="BM27" s="51"/>
-      <c r="BN27" s="51"/>
-      <c r="BO27" s="51"/>
-      <c r="BP27" s="51"/>
-      <c r="BQ27" s="51"/>
-      <c r="BR27" s="51"/>
-      <c r="BS27" s="51"/>
-      <c r="BT27" s="51"/>
-      <c r="BU27" s="51"/>
-      <c r="BV27" s="54"/>
-      <c r="BW27" s="54"/>
-      <c r="BX27" s="54"/>
-      <c r="BY27" s="54"/>
-      <c r="BZ27" s="54"/>
-      <c r="CA27" s="51"/>
-      <c r="CB27" s="51"/>
-      <c r="CC27" s="51"/>
-      <c r="CD27" s="51"/>
-      <c r="CE27" s="55"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="63"/>
+      <c r="AW27" s="59"/>
+      <c r="AX27" s="59"/>
+      <c r="AY27" s="59"/>
+      <c r="AZ27" s="59"/>
+      <c r="BA27" s="59"/>
+      <c r="BB27" s="59"/>
+      <c r="BC27" s="59"/>
+      <c r="BD27" s="59"/>
+      <c r="BE27" s="59"/>
+      <c r="BF27" s="59"/>
+      <c r="BG27" s="64"/>
+      <c r="BH27" s="64"/>
+      <c r="BI27" s="64"/>
+      <c r="BJ27" s="64"/>
+      <c r="BK27" s="64"/>
+      <c r="BL27" s="59"/>
+      <c r="BM27" s="59"/>
+      <c r="BN27" s="59"/>
+      <c r="BO27" s="59"/>
+      <c r="BP27" s="59"/>
+      <c r="BQ27" s="59"/>
+      <c r="BR27" s="59"/>
+      <c r="BS27" s="59"/>
+      <c r="BT27" s="59"/>
+      <c r="BU27" s="59"/>
+      <c r="BV27" s="65"/>
+      <c r="BW27" s="65"/>
+      <c r="BX27" s="65"/>
+      <c r="BY27" s="65"/>
+      <c r="BZ27" s="65"/>
+      <c r="CA27" s="59"/>
+      <c r="CB27" s="59"/>
+      <c r="CC27" s="59"/>
+      <c r="CD27" s="59"/>
+      <c r="CE27" s="66"/>
       <c r="CF27" s="39"/>
     </row>
-    <row r="28" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40">
-        <v>3.2</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43">
-        <v>0</v>
-      </c>
-      <c r="H28" s="44">
-        <v>0</v>
-      </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="59"/>
-      <c r="AX28" s="59"/>
-      <c r="AY28" s="59"/>
-      <c r="AZ28" s="59"/>
-      <c r="BA28" s="59"/>
-      <c r="BB28" s="59"/>
-      <c r="BC28" s="59"/>
-      <c r="BD28" s="59"/>
-      <c r="BE28" s="59"/>
-      <c r="BF28" s="59"/>
-      <c r="BG28" s="64"/>
-      <c r="BH28" s="64"/>
-      <c r="BI28" s="64"/>
-      <c r="BJ28" s="64"/>
-      <c r="BK28" s="64"/>
-      <c r="BL28" s="59"/>
-      <c r="BM28" s="59"/>
-      <c r="BN28" s="59"/>
-      <c r="BO28" s="59"/>
-      <c r="BP28" s="59"/>
-      <c r="BQ28" s="59"/>
-      <c r="BR28" s="59"/>
-      <c r="BS28" s="59"/>
-      <c r="BT28" s="59"/>
-      <c r="BU28" s="59"/>
-      <c r="BV28" s="65"/>
-      <c r="BW28" s="65"/>
-      <c r="BX28" s="65"/>
-      <c r="BY28" s="65"/>
-      <c r="BZ28" s="65"/>
-      <c r="CA28" s="59"/>
-      <c r="CB28" s="59"/>
-      <c r="CC28" s="59"/>
-      <c r="CD28" s="59"/>
-      <c r="CE28" s="66"/>
-      <c r="CF28" s="39"/>
+    <row r="28" spans="1:84" ht="21" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="32">
+        <v>3</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="38"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="38"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
+      <c r="BO28" s="38"/>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="38"/>
+      <c r="BR28" s="38"/>
+      <c r="BS28" s="38"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="38"/>
+      <c r="BW28" s="38"/>
+      <c r="BX28" s="38"/>
+      <c r="BY28" s="38"/>
+      <c r="BZ28" s="38"/>
+      <c r="CA28" s="38"/>
+      <c r="CB28" s="38"/>
+      <c r="CC28" s="38"/>
+      <c r="CD28" s="38"/>
+      <c r="CE28" s="38"/>
+      <c r="CF28" s="22"/>
     </row>
     <row r="29" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="39"/>
-      <c r="B29" s="40" t="s">
-        <v>30</v>
+      <c r="B29" s="40">
+        <v>3.1</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>37</v>
@@ -4286,90 +4305,90 @@
       <c r="H29" s="44">
         <v>0</v>
       </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
       <c r="N29" s="61"/>
       <c r="O29" s="61"/>
       <c r="P29" s="61"/>
       <c r="Q29" s="61"/>
       <c r="R29" s="61"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="59"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
       <c r="X29" s="51"/>
       <c r="Y29" s="51"/>
       <c r="Z29" s="51"/>
       <c r="AA29" s="51"/>
-      <c r="AB29" s="59"/>
+      <c r="AB29" s="51"/>
       <c r="AC29" s="51"/>
       <c r="AD29" s="51"/>
       <c r="AE29" s="51"/>
       <c r="AF29" s="51"/>
-      <c r="AG29" s="59"/>
+      <c r="AG29" s="51"/>
       <c r="AH29" s="51"/>
       <c r="AI29" s="51"/>
       <c r="AJ29" s="51"/>
       <c r="AK29" s="51"/>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="63"/>
-      <c r="AT29" s="63"/>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="59"/>
-      <c r="AX29" s="59"/>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="59"/>
-      <c r="BA29" s="59"/>
-      <c r="BB29" s="59"/>
-      <c r="BC29" s="59"/>
-      <c r="BD29" s="59"/>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="64"/>
-      <c r="BH29" s="64"/>
-      <c r="BI29" s="64"/>
-      <c r="BJ29" s="64"/>
-      <c r="BK29" s="64"/>
-      <c r="BL29" s="59"/>
-      <c r="BM29" s="59"/>
-      <c r="BN29" s="59"/>
-      <c r="BO29" s="59"/>
-      <c r="BP29" s="59"/>
-      <c r="BQ29" s="59"/>
-      <c r="BR29" s="59"/>
-      <c r="BS29" s="59"/>
-      <c r="BT29" s="59"/>
-      <c r="BU29" s="59"/>
-      <c r="BV29" s="65"/>
-      <c r="BW29" s="65"/>
-      <c r="BX29" s="65"/>
-      <c r="BY29" s="65"/>
-      <c r="BZ29" s="65"/>
-      <c r="CA29" s="59"/>
-      <c r="CB29" s="59"/>
-      <c r="CC29" s="59"/>
-      <c r="CD29" s="59"/>
-      <c r="CE29" s="66"/>
+      <c r="AL29" s="51"/>
+      <c r="AM29" s="51"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="52"/>
+      <c r="AW29" s="51"/>
+      <c r="AX29" s="51"/>
+      <c r="AY29" s="51"/>
+      <c r="AZ29" s="51"/>
+      <c r="BA29" s="51"/>
+      <c r="BB29" s="51"/>
+      <c r="BC29" s="51"/>
+      <c r="BD29" s="51"/>
+      <c r="BE29" s="51"/>
+      <c r="BF29" s="51"/>
+      <c r="BG29" s="53"/>
+      <c r="BH29" s="53"/>
+      <c r="BI29" s="53"/>
+      <c r="BJ29" s="53"/>
+      <c r="BK29" s="53"/>
+      <c r="BL29" s="51"/>
+      <c r="BM29" s="51"/>
+      <c r="BN29" s="51"/>
+      <c r="BO29" s="51"/>
+      <c r="BP29" s="51"/>
+      <c r="BQ29" s="51"/>
+      <c r="BR29" s="51"/>
+      <c r="BS29" s="51"/>
+      <c r="BT29" s="51"/>
+      <c r="BU29" s="51"/>
+      <c r="BV29" s="54"/>
+      <c r="BW29" s="54"/>
+      <c r="BX29" s="54"/>
+      <c r="BY29" s="54"/>
+      <c r="BZ29" s="54"/>
+      <c r="CA29" s="51"/>
+      <c r="CB29" s="51"/>
+      <c r="CC29" s="51"/>
+      <c r="CD29" s="51"/>
+      <c r="CE29" s="55"/>
       <c r="CF29" s="39"/>
     </row>
     <row r="30" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="39"/>
-      <c r="B30" s="40" t="s">
-        <v>31</v>
+      <c r="B30" s="40">
+        <v>3.2</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>37</v>
@@ -4379,7 +4398,7 @@
       <c r="G30" s="43">
         <v>0</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="44">
         <v>0</v>
       </c>
       <c r="I30" s="56"/>
@@ -4392,25 +4411,25 @@
       <c r="P30" s="61"/>
       <c r="Q30" s="61"/>
       <c r="R30" s="61"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
       <c r="W30" s="59"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
       <c r="AB30" s="59"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
       <c r="AG30" s="59"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="51"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="59"/>
       <c r="AL30" s="59"/>
       <c r="AM30" s="59"/>
       <c r="AN30" s="59"/>
@@ -4459,103 +4478,109 @@
       <c r="CE30" s="66"/>
       <c r="CF30" s="39"/>
     </row>
-    <row r="31" spans="1:84" ht="21" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="32">
-        <v>4</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
-      <c r="AK31" s="38"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="38"/>
-      <c r="AS31" s="38"/>
-      <c r="AT31" s="38"/>
-      <c r="AU31" s="38"/>
-      <c r="AV31" s="38"/>
-      <c r="AW31" s="38"/>
-      <c r="AX31" s="38"/>
-      <c r="AY31" s="38"/>
-      <c r="AZ31" s="38"/>
-      <c r="BA31" s="38"/>
-      <c r="BB31" s="38"/>
-      <c r="BC31" s="38"/>
-      <c r="BD31" s="38"/>
-      <c r="BE31" s="38"/>
-      <c r="BF31" s="38"/>
-      <c r="BG31" s="38"/>
-      <c r="BH31" s="38"/>
-      <c r="BI31" s="38"/>
-      <c r="BJ31" s="38"/>
-      <c r="BK31" s="38"/>
-      <c r="BL31" s="38"/>
-      <c r="BM31" s="38"/>
-      <c r="BN31" s="38"/>
-      <c r="BO31" s="38"/>
-      <c r="BP31" s="38"/>
-      <c r="BQ31" s="38"/>
-      <c r="BR31" s="38"/>
-      <c r="BS31" s="38"/>
-      <c r="BT31" s="38"/>
-      <c r="BU31" s="38"/>
-      <c r="BV31" s="38"/>
-      <c r="BW31" s="38"/>
-      <c r="BX31" s="38"/>
-      <c r="BY31" s="38"/>
-      <c r="BZ31" s="38"/>
-      <c r="CA31" s="38"/>
-      <c r="CB31" s="38"/>
-      <c r="CC31" s="38"/>
-      <c r="CD31" s="38"/>
-      <c r="CE31" s="38"/>
-      <c r="CF31" s="22"/>
+    <row r="31" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43">
+        <v>0</v>
+      </c>
+      <c r="H31" s="44">
+        <v>0</v>
+      </c>
+      <c r="I31" s="56"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="63"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="59"/>
+      <c r="AX31" s="59"/>
+      <c r="AY31" s="59"/>
+      <c r="AZ31" s="59"/>
+      <c r="BA31" s="59"/>
+      <c r="BB31" s="59"/>
+      <c r="BC31" s="59"/>
+      <c r="BD31" s="59"/>
+      <c r="BE31" s="59"/>
+      <c r="BF31" s="59"/>
+      <c r="BG31" s="64"/>
+      <c r="BH31" s="64"/>
+      <c r="BI31" s="64"/>
+      <c r="BJ31" s="64"/>
+      <c r="BK31" s="64"/>
+      <c r="BL31" s="59"/>
+      <c r="BM31" s="59"/>
+      <c r="BN31" s="59"/>
+      <c r="BO31" s="59"/>
+      <c r="BP31" s="59"/>
+      <c r="BQ31" s="59"/>
+      <c r="BR31" s="59"/>
+      <c r="BS31" s="59"/>
+      <c r="BT31" s="59"/>
+      <c r="BU31" s="59"/>
+      <c r="BV31" s="65"/>
+      <c r="BW31" s="65"/>
+      <c r="BX31" s="65"/>
+      <c r="BY31" s="65"/>
+      <c r="BZ31" s="65"/>
+      <c r="CA31" s="59"/>
+      <c r="CB31" s="59"/>
+      <c r="CC31" s="59"/>
+      <c r="CD31" s="59"/>
+      <c r="CE31" s="66"/>
+      <c r="CF31" s="39"/>
     </row>
     <row r="32" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="39"/>
-      <c r="B32" s="40">
-        <v>4.0999999999999996</v>
+      <c r="B32" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>37</v>
@@ -4565,192 +4590,186 @@
       <c r="G32" s="43">
         <v>0</v>
       </c>
-      <c r="H32" s="44">
+      <c r="H32" s="67">
         <v>0</v>
       </c>
-      <c r="I32" s="45"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="59"/>
       <c r="X32" s="51"/>
       <c r="Y32" s="51"/>
       <c r="Z32" s="51"/>
       <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
+      <c r="AB32" s="59"/>
       <c r="AC32" s="51"/>
       <c r="AD32" s="51"/>
       <c r="AE32" s="51"/>
       <c r="AF32" s="51"/>
-      <c r="AG32" s="51"/>
+      <c r="AG32" s="59"/>
       <c r="AH32" s="51"/>
       <c r="AI32" s="51"/>
       <c r="AJ32" s="51"/>
       <c r="AK32" s="51"/>
-      <c r="AL32" s="51"/>
-      <c r="AM32" s="51"/>
-      <c r="AN32" s="51"/>
-      <c r="AO32" s="51"/>
-      <c r="AP32" s="51"/>
-      <c r="AQ32" s="51"/>
-      <c r="AR32" s="52"/>
-      <c r="AS32" s="52"/>
-      <c r="AT32" s="52"/>
-      <c r="AU32" s="52"/>
-      <c r="AV32" s="52"/>
-      <c r="AW32" s="51"/>
-      <c r="AX32" s="51"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="51"/>
-      <c r="BA32" s="51"/>
-      <c r="BB32" s="51"/>
-      <c r="BC32" s="51"/>
-      <c r="BD32" s="51"/>
-      <c r="BE32" s="51"/>
-      <c r="BF32" s="51"/>
-      <c r="BG32" s="53"/>
-      <c r="BH32" s="53"/>
-      <c r="BI32" s="53"/>
-      <c r="BJ32" s="53"/>
-      <c r="BK32" s="53"/>
-      <c r="BL32" s="51"/>
-      <c r="BM32" s="51"/>
-      <c r="BN32" s="51"/>
-      <c r="BO32" s="51"/>
-      <c r="BP32" s="51"/>
-      <c r="BQ32" s="51"/>
-      <c r="BR32" s="51"/>
-      <c r="BS32" s="51"/>
-      <c r="BT32" s="51"/>
-      <c r="BU32" s="51"/>
-      <c r="BV32" s="54"/>
-      <c r="BW32" s="54"/>
-      <c r="BX32" s="54"/>
-      <c r="BY32" s="54"/>
-      <c r="BZ32" s="54"/>
-      <c r="CA32" s="51"/>
-      <c r="CB32" s="51"/>
-      <c r="CC32" s="51"/>
-      <c r="CD32" s="51"/>
-      <c r="CE32" s="55"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
+      <c r="AU32" s="63"/>
+      <c r="AV32" s="63"/>
+      <c r="AW32" s="59"/>
+      <c r="AX32" s="59"/>
+      <c r="AY32" s="59"/>
+      <c r="AZ32" s="59"/>
+      <c r="BA32" s="59"/>
+      <c r="BB32" s="59"/>
+      <c r="BC32" s="59"/>
+      <c r="BD32" s="59"/>
+      <c r="BE32" s="59"/>
+      <c r="BF32" s="59"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BI32" s="64"/>
+      <c r="BJ32" s="64"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="59"/>
+      <c r="BM32" s="59"/>
+      <c r="BN32" s="59"/>
+      <c r="BO32" s="59"/>
+      <c r="BP32" s="59"/>
+      <c r="BQ32" s="59"/>
+      <c r="BR32" s="59"/>
+      <c r="BS32" s="59"/>
+      <c r="BT32" s="59"/>
+      <c r="BU32" s="59"/>
+      <c r="BV32" s="65"/>
+      <c r="BW32" s="65"/>
+      <c r="BX32" s="65"/>
+      <c r="BY32" s="65"/>
+      <c r="BZ32" s="65"/>
+      <c r="CA32" s="59"/>
+      <c r="CB32" s="59"/>
+      <c r="CC32" s="59"/>
+      <c r="CD32" s="59"/>
+      <c r="CE32" s="66"/>
       <c r="CF32" s="39"/>
     </row>
-    <row r="33" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40">
-        <v>4.2</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43">
-        <v>0</v>
-      </c>
-      <c r="H33" s="44">
-        <v>0</v>
-      </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="63"/>
-      <c r="AS33" s="63"/>
-      <c r="AT33" s="63"/>
-      <c r="AU33" s="63"/>
-      <c r="AV33" s="63"/>
-      <c r="AW33" s="59"/>
-      <c r="AX33" s="59"/>
-      <c r="AY33" s="59"/>
-      <c r="AZ33" s="59"/>
-      <c r="BA33" s="59"/>
-      <c r="BB33" s="59"/>
-      <c r="BC33" s="59"/>
-      <c r="BD33" s="59"/>
-      <c r="BE33" s="59"/>
-      <c r="BF33" s="59"/>
-      <c r="BG33" s="64"/>
-      <c r="BH33" s="64"/>
-      <c r="BI33" s="64"/>
-      <c r="BJ33" s="64"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="59"/>
-      <c r="BM33" s="59"/>
-      <c r="BN33" s="59"/>
-      <c r="BO33" s="59"/>
-      <c r="BP33" s="59"/>
-      <c r="BQ33" s="59"/>
-      <c r="BR33" s="59"/>
-      <c r="BS33" s="59"/>
-      <c r="BT33" s="59"/>
-      <c r="BU33" s="59"/>
-      <c r="BV33" s="65"/>
-      <c r="BW33" s="65"/>
-      <c r="BX33" s="65"/>
-      <c r="BY33" s="65"/>
-      <c r="BZ33" s="65"/>
-      <c r="CA33" s="59"/>
-      <c r="CB33" s="59"/>
-      <c r="CC33" s="59"/>
-      <c r="CD33" s="59"/>
-      <c r="CE33" s="66"/>
-      <c r="CF33" s="39"/>
+    <row r="33" spans="1:84" ht="21" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="32">
+        <v>4</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="38"/>
+      <c r="AJ33" s="38"/>
+      <c r="AK33" s="38"/>
+      <c r="AL33" s="38"/>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="38"/>
+      <c r="AO33" s="38"/>
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="38"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="38"/>
+      <c r="AT33" s="38"/>
+      <c r="AU33" s="38"/>
+      <c r="AV33" s="38"/>
+      <c r="AW33" s="38"/>
+      <c r="AX33" s="38"/>
+      <c r="AY33" s="38"/>
+      <c r="AZ33" s="38"/>
+      <c r="BA33" s="38"/>
+      <c r="BB33" s="38"/>
+      <c r="BC33" s="38"/>
+      <c r="BD33" s="38"/>
+      <c r="BE33" s="38"/>
+      <c r="BF33" s="38"/>
+      <c r="BG33" s="38"/>
+      <c r="BH33" s="38"/>
+      <c r="BI33" s="38"/>
+      <c r="BJ33" s="38"/>
+      <c r="BK33" s="38"/>
+      <c r="BL33" s="38"/>
+      <c r="BM33" s="38"/>
+      <c r="BN33" s="38"/>
+      <c r="BO33" s="38"/>
+      <c r="BP33" s="38"/>
+      <c r="BQ33" s="38"/>
+      <c r="BR33" s="38"/>
+      <c r="BS33" s="38"/>
+      <c r="BT33" s="38"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="38"/>
+      <c r="BW33" s="38"/>
+      <c r="BX33" s="38"/>
+      <c r="BY33" s="38"/>
+      <c r="BZ33" s="38"/>
+      <c r="CA33" s="38"/>
+      <c r="CB33" s="38"/>
+      <c r="CC33" s="38"/>
+      <c r="CD33" s="38"/>
+      <c r="CE33" s="38"/>
+      <c r="CF33" s="22"/>
     </row>
     <row r="34" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="39"/>
       <c r="B34" s="40">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
@@ -4760,90 +4779,90 @@
       <c r="H34" s="44">
         <v>0</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="59"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
       <c r="N34" s="50"/>
       <c r="O34" s="50"/>
       <c r="P34" s="50"/>
       <c r="Q34" s="50"/>
       <c r="R34" s="50"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="59"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
       <c r="X34" s="51"/>
       <c r="Y34" s="51"/>
       <c r="Z34" s="51"/>
       <c r="AA34" s="51"/>
-      <c r="AB34" s="59"/>
+      <c r="AB34" s="51"/>
       <c r="AC34" s="51"/>
       <c r="AD34" s="51"/>
       <c r="AE34" s="51"/>
       <c r="AF34" s="51"/>
-      <c r="AG34" s="59"/>
+      <c r="AG34" s="51"/>
       <c r="AH34" s="51"/>
       <c r="AI34" s="51"/>
       <c r="AJ34" s="51"/>
       <c r="AK34" s="51"/>
-      <c r="AL34" s="59"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="63"/>
-      <c r="AS34" s="63"/>
-      <c r="AT34" s="63"/>
-      <c r="AU34" s="63"/>
-      <c r="AV34" s="63"/>
-      <c r="AW34" s="59"/>
-      <c r="AX34" s="59"/>
-      <c r="AY34" s="59"/>
-      <c r="AZ34" s="59"/>
-      <c r="BA34" s="59"/>
-      <c r="BB34" s="59"/>
-      <c r="BC34" s="59"/>
-      <c r="BD34" s="59"/>
-      <c r="BE34" s="59"/>
-      <c r="BF34" s="59"/>
-      <c r="BG34" s="64"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="64"/>
-      <c r="BJ34" s="64"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="59"/>
-      <c r="BM34" s="59"/>
-      <c r="BN34" s="59"/>
-      <c r="BO34" s="59"/>
-      <c r="BP34" s="59"/>
-      <c r="BQ34" s="59"/>
-      <c r="BR34" s="59"/>
-      <c r="BS34" s="59"/>
-      <c r="BT34" s="59"/>
-      <c r="BU34" s="59"/>
-      <c r="BV34" s="65"/>
-      <c r="BW34" s="65"/>
-      <c r="BX34" s="65"/>
-      <c r="BY34" s="65"/>
-      <c r="BZ34" s="65"/>
-      <c r="CA34" s="59"/>
-      <c r="CB34" s="59"/>
-      <c r="CC34" s="59"/>
-      <c r="CD34" s="59"/>
-      <c r="CE34" s="66"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="52"/>
+      <c r="AS34" s="52"/>
+      <c r="AT34" s="52"/>
+      <c r="AU34" s="52"/>
+      <c r="AV34" s="52"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="51"/>
+      <c r="BC34" s="51"/>
+      <c r="BD34" s="51"/>
+      <c r="BE34" s="51"/>
+      <c r="BF34" s="51"/>
+      <c r="BG34" s="53"/>
+      <c r="BH34" s="53"/>
+      <c r="BI34" s="53"/>
+      <c r="BJ34" s="53"/>
+      <c r="BK34" s="53"/>
+      <c r="BL34" s="51"/>
+      <c r="BM34" s="51"/>
+      <c r="BN34" s="51"/>
+      <c r="BO34" s="51"/>
+      <c r="BP34" s="51"/>
+      <c r="BQ34" s="51"/>
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="51"/>
+      <c r="BT34" s="51"/>
+      <c r="BU34" s="51"/>
+      <c r="BV34" s="54"/>
+      <c r="BW34" s="54"/>
+      <c r="BX34" s="54"/>
+      <c r="BY34" s="54"/>
+      <c r="BZ34" s="54"/>
+      <c r="CA34" s="51"/>
+      <c r="CB34" s="51"/>
+      <c r="CC34" s="51"/>
+      <c r="CD34" s="51"/>
+      <c r="CE34" s="55"/>
       <c r="CF34" s="39"/>
     </row>
     <row r="35" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A35" s="39"/>
       <c r="B35" s="40">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D35" s="41" t="s">
         <v>37</v>
@@ -4853,7 +4872,7 @@
       <c r="G35" s="43">
         <v>0</v>
       </c>
-      <c r="H35" s="67">
+      <c r="H35" s="44">
         <v>0</v>
       </c>
       <c r="I35" s="56"/>
@@ -4866,25 +4885,25 @@
       <c r="P35" s="50"/>
       <c r="Q35" s="50"/>
       <c r="R35" s="50"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
       <c r="W35" s="59"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
       <c r="AB35" s="59"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="51"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
       <c r="AG35" s="59"/>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="51"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
       <c r="AL35" s="59"/>
       <c r="AM35" s="59"/>
       <c r="AN35" s="59"/>
@@ -4933,177 +4952,197 @@
       <c r="CE35" s="66"/>
       <c r="CF35" s="39"/>
     </row>
-    <row r="36" spans="1:84" ht="21" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AP36" s="22"/>
-      <c r="AQ36" s="22"/>
-      <c r="AR36" s="22"/>
-      <c r="AS36" s="22"/>
-      <c r="AT36" s="22"/>
-      <c r="AU36" s="22"/>
-      <c r="AV36" s="22"/>
-      <c r="AW36" s="22"/>
-      <c r="AX36" s="22"/>
-      <c r="AY36" s="22"/>
-      <c r="AZ36" s="22"/>
-      <c r="BA36" s="22"/>
-      <c r="BB36" s="22"/>
-      <c r="BC36" s="22"/>
-      <c r="BD36" s="22"/>
-      <c r="BE36" s="22"/>
-      <c r="BF36" s="22"/>
-      <c r="BG36" s="22"/>
-      <c r="BH36" s="22"/>
-      <c r="BI36" s="22"/>
-      <c r="BJ36" s="22"/>
-      <c r="BK36" s="22"/>
-      <c r="BL36" s="22"/>
-      <c r="BM36" s="22"/>
-      <c r="BN36" s="22"/>
-      <c r="BO36" s="22"/>
-      <c r="BP36" s="22"/>
-      <c r="BQ36" s="22"/>
-      <c r="BR36" s="22"/>
-      <c r="BS36" s="22"/>
-      <c r="BT36" s="22"/>
-      <c r="BU36" s="22"/>
-      <c r="BV36" s="22"/>
-      <c r="BW36" s="22"/>
-      <c r="BX36" s="22"/>
-      <c r="BY36" s="22"/>
-      <c r="BZ36" s="22"/>
-      <c r="CA36" s="22"/>
-      <c r="CB36" s="22"/>
-      <c r="CC36" s="22"/>
-      <c r="CD36" s="22"/>
-      <c r="CE36" s="22"/>
-      <c r="CF36" s="22"/>
+    <row r="36" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40">
+        <v>4.3</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43">
+        <v>0</v>
+      </c>
+      <c r="H36" s="44">
+        <v>0</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="47"/>
+      <c r="V36" s="47"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="63"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="63"/>
+      <c r="AU36" s="63"/>
+      <c r="AV36" s="63"/>
+      <c r="AW36" s="59"/>
+      <c r="AX36" s="59"/>
+      <c r="AY36" s="59"/>
+      <c r="AZ36" s="59"/>
+      <c r="BA36" s="59"/>
+      <c r="BB36" s="59"/>
+      <c r="BC36" s="59"/>
+      <c r="BD36" s="59"/>
+      <c r="BE36" s="59"/>
+      <c r="BF36" s="59"/>
+      <c r="BG36" s="64"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="64"/>
+      <c r="BJ36" s="64"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="59"/>
+      <c r="BM36" s="59"/>
+      <c r="BN36" s="59"/>
+      <c r="BO36" s="59"/>
+      <c r="BP36" s="59"/>
+      <c r="BQ36" s="59"/>
+      <c r="BR36" s="59"/>
+      <c r="BS36" s="59"/>
+      <c r="BT36" s="59"/>
+      <c r="BU36" s="59"/>
+      <c r="BV36" s="65"/>
+      <c r="BW36" s="65"/>
+      <c r="BX36" s="65"/>
+      <c r="BY36" s="65"/>
+      <c r="BZ36" s="65"/>
+      <c r="CA36" s="59"/>
+      <c r="CB36" s="59"/>
+      <c r="CC36" s="59"/>
+      <c r="CD36" s="59"/>
+      <c r="CE36" s="66"/>
+      <c r="CF36" s="39"/>
     </row>
-    <row r="37" spans="1:84" ht="21" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AP37" s="22"/>
-      <c r="AQ37" s="22"/>
-      <c r="AR37" s="22"/>
-      <c r="AS37" s="22"/>
-      <c r="AT37" s="22"/>
-      <c r="AU37" s="22"/>
-      <c r="AV37" s="22"/>
-      <c r="AW37" s="22"/>
-      <c r="AX37" s="22"/>
-      <c r="AY37" s="22"/>
-      <c r="AZ37" s="22"/>
-      <c r="BA37" s="22"/>
-      <c r="BB37" s="22"/>
-      <c r="BC37" s="22"/>
-      <c r="BD37" s="22"/>
-      <c r="BE37" s="22"/>
-      <c r="BF37" s="22"/>
-      <c r="BG37" s="22"/>
-      <c r="BH37" s="22"/>
-      <c r="BI37" s="22"/>
-      <c r="BJ37" s="22"/>
-      <c r="BK37" s="22"/>
-      <c r="BL37" s="22"/>
-      <c r="BM37" s="22"/>
-      <c r="BN37" s="22"/>
-      <c r="BO37" s="22"/>
-      <c r="BP37" s="22"/>
-      <c r="BQ37" s="22"/>
-      <c r="BR37" s="22"/>
-      <c r="BS37" s="22"/>
-      <c r="BT37" s="22"/>
-      <c r="BU37" s="22"/>
-      <c r="BV37" s="22"/>
-      <c r="BW37" s="22"/>
-      <c r="BX37" s="22"/>
-      <c r="BY37" s="22"/>
-      <c r="BZ37" s="22"/>
-      <c r="CA37" s="22"/>
-      <c r="CB37" s="22"/>
-      <c r="CC37" s="22"/>
-      <c r="CD37" s="22"/>
-      <c r="CE37" s="22"/>
-      <c r="CF37" s="22"/>
+    <row r="37" spans="1:84" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43">
+        <v>0</v>
+      </c>
+      <c r="H37" s="67">
+        <v>0</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="63"/>
+      <c r="AS37" s="63"/>
+      <c r="AT37" s="63"/>
+      <c r="AU37" s="63"/>
+      <c r="AV37" s="63"/>
+      <c r="AW37" s="59"/>
+      <c r="AX37" s="59"/>
+      <c r="AY37" s="59"/>
+      <c r="AZ37" s="59"/>
+      <c r="BA37" s="59"/>
+      <c r="BB37" s="59"/>
+      <c r="BC37" s="59"/>
+      <c r="BD37" s="59"/>
+      <c r="BE37" s="59"/>
+      <c r="BF37" s="59"/>
+      <c r="BG37" s="64"/>
+      <c r="BH37" s="64"/>
+      <c r="BI37" s="64"/>
+      <c r="BJ37" s="64"/>
+      <c r="BK37" s="64"/>
+      <c r="BL37" s="59"/>
+      <c r="BM37" s="59"/>
+      <c r="BN37" s="59"/>
+      <c r="BO37" s="59"/>
+      <c r="BP37" s="59"/>
+      <c r="BQ37" s="59"/>
+      <c r="BR37" s="59"/>
+      <c r="BS37" s="59"/>
+      <c r="BT37" s="59"/>
+      <c r="BU37" s="59"/>
+      <c r="BV37" s="65"/>
+      <c r="BW37" s="65"/>
+      <c r="BX37" s="65"/>
+      <c r="BY37" s="65"/>
+      <c r="BZ37" s="65"/>
+      <c r="CA37" s="59"/>
+      <c r="CB37" s="59"/>
+      <c r="CC37" s="59"/>
+      <c r="CD37" s="59"/>
+      <c r="CE37" s="66"/>
+      <c r="CF37" s="39"/>
     </row>
     <row r="38" spans="1:84" ht="21" customHeight="1">
       <c r="A38" s="22"/>
@@ -5191,19 +5230,196 @@
       <c r="CE38" s="22"/>
       <c r="CF38" s="22"/>
     </row>
+    <row r="39" spans="1:84" ht="21" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="22"/>
+      <c r="AP39" s="22"/>
+      <c r="AQ39" s="22"/>
+      <c r="AR39" s="22"/>
+      <c r="AS39" s="22"/>
+      <c r="AT39" s="22"/>
+      <c r="AU39" s="22"/>
+      <c r="AV39" s="22"/>
+      <c r="AW39" s="22"/>
+      <c r="AX39" s="22"/>
+      <c r="AY39" s="22"/>
+      <c r="AZ39" s="22"/>
+      <c r="BA39" s="22"/>
+      <c r="BB39" s="22"/>
+      <c r="BC39" s="22"/>
+      <c r="BD39" s="22"/>
+      <c r="BE39" s="22"/>
+      <c r="BF39" s="22"/>
+      <c r="BG39" s="22"/>
+      <c r="BH39" s="22"/>
+      <c r="BI39" s="22"/>
+      <c r="BJ39" s="22"/>
+      <c r="BK39" s="22"/>
+      <c r="BL39" s="22"/>
+      <c r="BM39" s="22"/>
+      <c r="BN39" s="22"/>
+      <c r="BO39" s="22"/>
+      <c r="BP39" s="22"/>
+      <c r="BQ39" s="22"/>
+      <c r="BR39" s="22"/>
+      <c r="BS39" s="22"/>
+      <c r="BT39" s="22"/>
+      <c r="BU39" s="22"/>
+      <c r="BV39" s="22"/>
+      <c r="BW39" s="22"/>
+      <c r="BX39" s="22"/>
+      <c r="BY39" s="22"/>
+      <c r="BZ39" s="22"/>
+      <c r="CA39" s="22"/>
+      <c r="CB39" s="22"/>
+      <c r="CC39" s="22"/>
+      <c r="CD39" s="22"/>
+      <c r="CE39" s="22"/>
+      <c r="CF39" s="22"/>
+    </row>
+    <row r="40" spans="1:84" ht="21" customHeight="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
+      <c r="AQ40" s="22"/>
+      <c r="AR40" s="22"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="22"/>
+      <c r="AU40" s="22"/>
+      <c r="AV40" s="22"/>
+      <c r="AW40" s="22"/>
+      <c r="AX40" s="22"/>
+      <c r="AY40" s="22"/>
+      <c r="AZ40" s="22"/>
+      <c r="BA40" s="22"/>
+      <c r="BB40" s="22"/>
+      <c r="BC40" s="22"/>
+      <c r="BD40" s="22"/>
+      <c r="BE40" s="22"/>
+      <c r="BF40" s="22"/>
+      <c r="BG40" s="22"/>
+      <c r="BH40" s="22"/>
+      <c r="BI40" s="22"/>
+      <c r="BJ40" s="22"/>
+      <c r="BK40" s="22"/>
+      <c r="BL40" s="22"/>
+      <c r="BM40" s="22"/>
+      <c r="BN40" s="22"/>
+      <c r="BO40" s="22"/>
+      <c r="BP40" s="22"/>
+      <c r="BQ40" s="22"/>
+      <c r="BR40" s="22"/>
+      <c r="BS40" s="22"/>
+      <c r="BT40" s="22"/>
+      <c r="BU40" s="22"/>
+      <c r="BV40" s="22"/>
+      <c r="BW40" s="22"/>
+      <c r="BX40" s="22"/>
+      <c r="BY40" s="22"/>
+      <c r="BZ40" s="22"/>
+      <c r="CA40" s="22"/>
+      <c r="CB40" s="22"/>
+      <c r="CC40" s="22"/>
+      <c r="CD40" s="22"/>
+      <c r="CE40" s="22"/>
+      <c r="CF40" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AP5"/>
+    <mergeCell ref="O2:AT2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AQ4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="CA9:CE9"/>
+    <mergeCell ref="BQ9:BU9"/>
+    <mergeCell ref="BQ8:CE8"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="S9:W9"/>
     <mergeCell ref="N9:R9"/>
     <mergeCell ref="I9:M9"/>
@@ -5216,25 +5432,20 @@
     <mergeCell ref="AC9:AG9"/>
     <mergeCell ref="AH9:AL9"/>
     <mergeCell ref="I8:AL8"/>
-    <mergeCell ref="CA9:CE9"/>
-    <mergeCell ref="BQ9:BU9"/>
-    <mergeCell ref="BQ8:CE8"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AP5"/>
-    <mergeCell ref="O2:AT2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AQ4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="H22:H35 H12:H20">
+  <conditionalFormatting sqref="H24:H37 H12:H22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5244,7 +5455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H35 H12:H20">
+  <conditionalFormatting sqref="H24:H37 H12:H22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
